--- a/Results/results_walking_arm_ankle_l3o.xlsx
+++ b/Results/results_walking_arm_ankle_l3o.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="429">
   <si>
     <t>selected_batch</t>
   </si>
@@ -67,136 +67,1480 @@
     <t>0_6</t>
   </si>
   <si>
-    <t>[319. 302. 333.]</t>
-  </si>
-  <si>
-    <t>[313. 306. 300.]</t>
-  </si>
-  <si>
-    <t>[322. 328. 310.]</t>
-  </si>
-  <si>
-    <t>[346. 342. 325.]</t>
-  </si>
-  <si>
-    <t>[335. 301. 312.]</t>
-  </si>
-  <si>
-    <t>[321. 327. 340.]</t>
-  </si>
-  <si>
-    <t>[344. 307. 330. 313. 329. 322.]</t>
-  </si>
-  <si>
-    <t>[329. 318. 312. 340. 304. 302.]</t>
-  </si>
-  <si>
-    <t>[315. 346. 307. 325. 302. 327.]</t>
-  </si>
-  <si>
-    <t>[315. 300. 320. 310. 322. 313.]</t>
-  </si>
-  <si>
-    <t>[302. 344. 346. 313. 342. 315.]</t>
-  </si>
-  <si>
-    <t>[315. 322. 328. 335. 307. 313.]</t>
-  </si>
-  <si>
-    <t>[0.837132453918457, 0.8814007043838501, 0.8989098072052002, 0.9041955471038818, 0.9131153225898743, 0.9203832149505615, 0.9288073778152466, 0.9273207783699036, 0.9347538948059082, 0.9397093057632446, 0.9446646571159363, 0.9509415030479431, 0.9489593505859375, 0.9459861516952515, 0.9575487375259399, 0.9524281620979309, 0.9545754790306091, 0.9618434309959412, 0.961182713508606, 0.9580442905426025, 0.9596960544586182, 0.9674595594406128, 0.9649818539619446]</t>
-  </si>
-  <si>
-    <t>[0.8285663723945618, 0.8854166865348816, 0.900600254535675, 0.9108403921127319, 0.9157838821411133, 0.9205508232116699, 0.9260240197181702, 0.9332627058029175, 0.9334392547607422, 0.940854549407959, 0.9427965879440308, 0.9466807842254639, 0.950564980506897, 0.9486228823661804, 0.9562146663665771, 0.9595692157745361, 0.9609816670417786, 0.9638065099716187, 0.9650423526763916, 0.9669844508171082, 0.9694561958312988, 0.9713982939720154]</t>
-  </si>
-  <si>
-    <t>[0.8442453742027283, 0.8805995583534241, 0.9026533365249634, 0.9116126894950867, 0.9150585532188416, 0.9203997254371643, 0.927808403968811, 0.9309096932411194, 0.9333218336105347, 0.937629222869873, 0.940902829170227, 0.9498621821403503, 0.9557201862335205, 0.9555478692054749, 0.9589937925338745, 0.9562370777130127]</t>
-  </si>
-  <si>
-    <t>[0.8365830779075623, 0.895821750164032, 0.9058495759963989, 0.9158774614334106, 0.927947998046875, 0.926276683807373, 0.937233030796051, 0.9422469735145569, 0.9454038739204407, 0.9439182877540588, 0.9561745524406433, 0.9522748589515686, 0.9608170986175537, 0.9597028493881226, 0.9591457843780518, 0.9615598917007446, 0.9723305702209473, 0.9697307348251343, 0.9675022959709167, 0.9714020490646362, 0.9749303460121155, 0.9758588671684265, 0.9695450067520142, 0.9758588671684265, 0.9797585606575012, 0.9767873883247375, 0.9799442887306213, 0.9827297925949097, 0.9799442887306213, 0.9827297925949097, 0.9808728098869324, 0.9842154383659363, 0.9849582314491272, 0.9858866930007935, 0.9845868349075317, 0.985515296459198, 0.9860724210739136]</t>
-  </si>
-  <si>
-    <t>[0.834987998008728, 0.8865114450454712, 0.899863064289093, 0.9097911715507507, 0.9202327728271484, 0.9228004217147827, 0.929989755153656, 0.9344402551651001, 0.939404308795929, 0.9438548684120178, 0.9453954100608826, 0.9496747851371765, 0.9489900469779968, 0.9572064280509949, 0.9572064280509949, 0.9618281126022339, 0.9633687138557434]</t>
-  </si>
-  <si>
-    <t>[0.8305523991584778, 0.8893568515777588, 0.9008585810661316, 0.9071764349937439, 0.9194880723953247, 0.9212700724601746, 0.9272639155387878, 0.9317997694015503, 0.9335817098617554, 0.9428154826164246, 0.942653477191925, 0.9441114664077759, 0.9501053094863892, 0.9492953419685364, 0.9549651741981506, 0.963388979434967, 0.9617689847946167, 0.9622550010681152, 0.9656568765640259, 0.9679248332977295, 0.9646849036216736, 0.9682488441467285, 0.97310870885849, 0.9705167412757874, 0.9685727953910828, 0.9710027575492859, 0.9779685735702515, 0.9739186763763428, 0.9779685735702515, 0.9769966006278992, 0.9807224869728088, 0.9802365303039551, 0.9776445627212524]</t>
-  </si>
-  <si>
-    <t>[0.9246947169303894, 0.9464043378829956, 0.9348710775375366, 0.9443690776824951, 0.9457259178161621, 0.9443690776824951, 0.9396200776100159, 0.9470827579498291, 0.9396200776100159, 0.9457259178161621, 0.9294437170028687, 0.9348710775375366, 0.9308005571365356, 0.9409769177436829, 0.9294437170028687, 0.9396200776100159, 0.9314789772033691, 0.9321573972702026, 0.9335142374038696, 0.9267299771308899, 0.9274083971977234, 0.9240162968635559, 0.9348710775375366]</t>
-  </si>
-  <si>
-    <t>[0.8869630694389343, 0.9103240370750427, 0.9050489664077759, 0.9125847816467285, 0.9133383631706238, 0.9080632925033569, 0.9231348633766174, 0.9155991077423096, 0.9171062707901001, 0.9155991077423096, 0.9065561294555664, 0.9155991077423096, 0.9080632925033569, 0.8967596292495728, 0.9012810587882996, 0.8892238140106201, 0.9065561294555664, 0.9012810587882996, 0.9073097109794617, 0.8997739553451538, 0.8990203738212585, 0.8967596292495728]</t>
-  </si>
-  <si>
-    <t>[0.9356477856636047, 0.9229466319084167, 0.8916172981262207, 0.9229466319084167, 0.9110922813415527, 0.9263336062431335, 0.9331075549125671, 0.9026249051094055, 0.9144792556762695, 0.9263336062431335, 0.9060118794441223, 0.9339542984962463, 0.9110922813415527, 0.9077053070068359, 0.8992379307746887, 0.9051651358604431]</t>
-  </si>
-  <si>
-    <t>[0.8738785982131958, 0.8775725364685059, 0.8912928700447083, 0.884960412979126, 0.8796833753585815, 0.8907651901245117, 0.8881266713142395, 0.8828496336936951, 0.8918206095695496, 0.8897097706794739, 0.8781002759933472, 0.8944591283798218, 0.8828496336936951, 0.8960422277450562, 0.8786279559135437, 0.8912928700447083, 0.8891820311546326, 0.8775725364685059, 0.8643799424171448, 0.8802110552787781, 0.8934037089347839, 0.8976253271102905, 0.8923482894897461, 0.8802110552787781, 0.8902374505996704, 0.8839049935340881, 0.8833773136138916, 0.8870712518692017, 0.8833773136138916, 0.8881266713142395, 0.8823218941688538, 0.8765171766281128, 0.8823218941688538, 0.8802110552787781, 0.8781002759933472, 0.8464379906654358, 0.8839049935340881]</t>
-  </si>
-  <si>
-    <t>[0.9080687761306763, 0.9166666865348816, 0.9140211343765259, 0.9027777910232544, 0.9126983880996704, 0.9126983880996704, 0.9153439402580261, 0.9067460298538208, 0.9060846567153931, 0.9014550447463989, 0.9014550447463989, 0.8862434029579163, 0.8875661492347717, 0.898809552192688, 0.8915343880653381, 0.886904776096344, 0.8948412537574768]</t>
-  </si>
-  <si>
-    <t>[0.9044166207313538, 0.9281476736068726, 0.9235332608222961, 0.9149637222290039, 0.9307844638824463, 0.924851655960083, 0.9215556979179382, 0.9255108833312988, 0.9294660687446594, 0.9189189076423645, 0.924192488193512, 0.9235332608222961, 0.9261700510978699, 0.9321028590202332, 0.9327620267868042, 0.9156229496002197, 0.922214925289154, 0.9340804219245911, 0.9261700510978699, 0.9274884462356567, 0.9189189076423645, 0.924192488193512, 0.9149637222290039, 0.9149637222290039, 0.9189189076423645, 0.8998022675514221, 0.9261700510978699, 0.9169413447380066, 0.9268292784690857, 0.922214925289154, 0.924851655960083, 0.9182597398757935, 0.9274884462356567]</t>
-  </si>
-  <si>
-    <t>[[220   2   4]
- [  4  38   0]
- [ 28   3 195]]</t>
-  </si>
-  <si>
-    <t>[[667   4  25]
- [ 22  95   8]
- [ 42   1 167]]</t>
-  </si>
-  <si>
-    <t>[[638   2  29]
- [ 41 152   6]
- [ 25   2 142]]</t>
-  </si>
-  <si>
-    <t>[[395   3  14]
- [ 20  93  13]
- [ 30   0 174]]</t>
-  </si>
-  <si>
-    <t>[[376  26  15]
- [  1  53   3]
- [ 21  33 140]]</t>
-  </si>
-  <si>
-    <t>[[165   0  20]
- [  0  23   4]
- [  7   0 113]]</t>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>5_6</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>6_5</t>
+  </si>
+  <si>
+    <t>6_6</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>7_5</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>8_5</t>
+  </si>
+  <si>
+    <t>8_6</t>
+  </si>
+  <si>
+    <t>9_1</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>9_4</t>
+  </si>
+  <si>
+    <t>9_5</t>
+  </si>
+  <si>
+    <t>9_6</t>
+  </si>
+  <si>
+    <t>[300. 340. 342.]</t>
+  </si>
+  <si>
+    <t>[326. 313. 322.]</t>
+  </si>
+  <si>
+    <t>[327. 321. 302.]</t>
+  </si>
+  <si>
+    <t>[335. 319. 310.]</t>
+  </si>
+  <si>
+    <t>[301. 312. 328.]</t>
+  </si>
+  <si>
+    <t>[346. 306. 333.]</t>
+  </si>
+  <si>
+    <t>[302. 327. 312.]</t>
+  </si>
+  <si>
+    <t>[342. 326. 306.]</t>
+  </si>
+  <si>
+    <t>[346. 333. 301.]</t>
+  </si>
+  <si>
+    <t>[322. 300. 328.]</t>
+  </si>
+  <si>
+    <t>[319. 313. 321.]</t>
+  </si>
+  <si>
+    <t>[340. 335. 310.]</t>
+  </si>
+  <si>
+    <t>[310. 301. 313.]</t>
+  </si>
+  <si>
+    <t>[300. 342. 322.]</t>
+  </si>
+  <si>
+    <t>[312. 340. 306.]</t>
+  </si>
+  <si>
+    <t>[302. 346. 328.]</t>
+  </si>
+  <si>
+    <t>[333. 327. 321.]</t>
+  </si>
+  <si>
+    <t>[335. 326. 319.]</t>
+  </si>
+  <si>
+    <t>[333. 335. 346.]</t>
+  </si>
+  <si>
+    <t>[301. 322. 319.]</t>
+  </si>
+  <si>
+    <t>[326. 312. 327.]</t>
+  </si>
+  <si>
+    <t>[300. 340. 328.]</t>
+  </si>
+  <si>
+    <t>[302. 342. 306.]</t>
+  </si>
+  <si>
+    <t>[313. 310. 321.]</t>
+  </si>
+  <si>
+    <t>[322. 312. 321.]</t>
+  </si>
+  <si>
+    <t>[310. 342. 327.]</t>
+  </si>
+  <si>
+    <t>[326. 346. 340.]</t>
+  </si>
+  <si>
+    <t>[302. 301. 319.]</t>
+  </si>
+  <si>
+    <t>[333. 328. 300.]</t>
+  </si>
+  <si>
+    <t>[335. 306. 313.]</t>
+  </si>
+  <si>
+    <t>[302. 300. 306.]</t>
+  </si>
+  <si>
+    <t>[326. 321. 342.]</t>
+  </si>
+  <si>
+    <t>[327. 335. 301.]</t>
+  </si>
+  <si>
+    <t>[313. 333. 310.]</t>
+  </si>
+  <si>
+    <t>[346. 312. 328.]</t>
+  </si>
+  <si>
+    <t>[340. 319. 322.]</t>
+  </si>
+  <si>
+    <t>[326. 306. 335.]</t>
+  </si>
+  <si>
+    <t>[310. 346. 322.]</t>
+  </si>
+  <si>
+    <t>[333. 313. 312.]</t>
+  </si>
+  <si>
+    <t>[321. 328. 300.]</t>
+  </si>
+  <si>
+    <t>[340. 327. 342.]</t>
+  </si>
+  <si>
+    <t>[310. 342. 321.]</t>
+  </si>
+  <si>
+    <t>[312. 340. 319.]</t>
+  </si>
+  <si>
+    <t>[306. 300. 335.]</t>
+  </si>
+  <si>
+    <t>[302. 327. 346.]</t>
+  </si>
+  <si>
+    <t>[328. 301. 322.]</t>
+  </si>
+  <si>
+    <t>[326. 333. 313.]</t>
+  </si>
+  <si>
+    <t>[312. 346. 327.]</t>
+  </si>
+  <si>
+    <t>[340. 302. 328.]</t>
+  </si>
+  <si>
+    <t>[310. 342. 306.]</t>
+  </si>
+  <si>
+    <t>[322. 319. 333.]</t>
+  </si>
+  <si>
+    <t>[321. 313. 326.]</t>
+  </si>
+  <si>
+    <t>[335. 300. 301.]</t>
+  </si>
+  <si>
+    <t>[342. 322. 326.]</t>
+  </si>
+  <si>
+    <t>[346. 310. 327.]</t>
+  </si>
+  <si>
+    <t>[319. 312. 328.]</t>
+  </si>
+  <si>
+    <t>[321. 313. 340.]</t>
+  </si>
+  <si>
+    <t>[302. 301. 333.]</t>
+  </si>
+  <si>
+    <t>[331. 315. 306. 319. 322. 314.]</t>
+  </si>
+  <si>
+    <t>[301. 327. 332. 340. 305. 333.]</t>
+  </si>
+  <si>
+    <t>[335. 333. 348. 331. 346. 324.]</t>
+  </si>
+  <si>
+    <t>[304. 331. 308. 314. 301. 321.]</t>
+  </si>
+  <si>
+    <t>[326. 320. 314. 309. 342. 302.]</t>
+  </si>
+  <si>
+    <t>[308. 304. 302. 340. 344. 300.]</t>
+  </si>
+  <si>
+    <t>[344. 322. 308. 309. 333. 304.]</t>
+  </si>
+  <si>
+    <t>[319. 300. 317. 323. 329. 324.]</t>
+  </si>
+  <si>
+    <t>[321. 310. 305. 323. 329. 342.]</t>
+  </si>
+  <si>
+    <t>[330. 321. 309. 310. 301. 332.]</t>
+  </si>
+  <si>
+    <t>[329. 344. 309. 315. 340. 305.]</t>
+  </si>
+  <si>
+    <t>[301. 324. 330. 333. 304. 309.]</t>
+  </si>
+  <si>
+    <t>[342. 309. 300. 335. 327. 326.]</t>
+  </si>
+  <si>
+    <t>[344. 333. 309. 310. 326. 304.]</t>
+  </si>
+  <si>
+    <t>[304. 301. 305. 319. 317. 344.]</t>
+  </si>
+  <si>
+    <t>[300. 348. 319. 322. 330. 333.]</t>
+  </si>
+  <si>
+    <t>[300. 304. 318. 302. 323. 317.]</t>
+  </si>
+  <si>
+    <t>[313. 312. 331. 323. 310. 344.]</t>
+  </si>
+  <si>
+    <t>[322. 318. 310. 312. 329. 301.]</t>
+  </si>
+  <si>
+    <t>[342. 312. 326. 305. 302. 331.]</t>
+  </si>
+  <si>
+    <t>[320. 346. 321. 328. 307. 315.]</t>
+  </si>
+  <si>
+    <t>[305. 314. 322. 315. 310. 324.]</t>
+  </si>
+  <si>
+    <t>[307. 327. 323. 313. 326. 301.]</t>
+  </si>
+  <si>
+    <t>[324. 314. 307. 333. 340. 322.]</t>
+  </si>
+  <si>
+    <t>[304. 324. 308. 328. 333. 318.]</t>
+  </si>
+  <si>
+    <t>[308. 331. 326. 309. 317. 344.]</t>
+  </si>
+  <si>
+    <t>[329. 328. 323. 327. 321. 324.]</t>
+  </si>
+  <si>
+    <t>[327. 306. 309. 330. 317. 342.]</t>
+  </si>
+  <si>
+    <t>[317. 319. 327. 307. 335. 308.]</t>
+  </si>
+  <si>
+    <t>[323. 322. 332. 309. 326. 321.]</t>
+  </si>
+  <si>
+    <t>[346. 314. 320. 312. 318. 301.]</t>
+  </si>
+  <si>
+    <t>[332. 324. 313. 310. 300. 327.]</t>
+  </si>
+  <si>
+    <t>[333. 307. 313. 306. 302. 330.]</t>
+  </si>
+  <si>
+    <t>[348. 328. 300. 319. 322. 324.]</t>
+  </si>
+  <si>
+    <t>[329. 301. 314. 330. 327. 318.]</t>
+  </si>
+  <si>
+    <t>[308. 310. 302. 348. 329. 328.]</t>
+  </si>
+  <si>
+    <t>[342. 346. 330. 310. 331. 320.]</t>
+  </si>
+  <si>
+    <t>[333. 331. 342. 348. 319. 330.]</t>
+  </si>
+  <si>
+    <t>[327. 309. 335. 332. 329. 321.]</t>
+  </si>
+  <si>
+    <t>[344. 342. 346. 320. 314. 333.]</t>
+  </si>
+  <si>
+    <t>[302. 330. 335. 324. 322. 331.]</t>
+  </si>
+  <si>
+    <t>[327. 300. 348. 306. 331. 332.]</t>
+  </si>
+  <si>
+    <t>[335. 326. 301. 348. 302. 313.]</t>
+  </si>
+  <si>
+    <t>[321. 332. 301. 307. 328. 331.]</t>
+  </si>
+  <si>
+    <t>[319. 342. 312. 344. 313. 321.]</t>
+  </si>
+  <si>
+    <t>[328. 344. 314. 310. 317. 326.]</t>
+  </si>
+  <si>
+    <t>[310. 305. 333. 335. 344. 330.]</t>
+  </si>
+  <si>
+    <t>[300. 306. 308. 312. 305. 301.]</t>
+  </si>
+  <si>
+    <t>[333. 344. 301. 326. 322. 310.]</t>
+  </si>
+  <si>
+    <t>[321. 304. 324. 330. 332. 327.]</t>
+  </si>
+  <si>
+    <t>[320. 329. 301. 318. 335. 322.]</t>
+  </si>
+  <si>
+    <t>[305. 313. 304. 315. 323. 328.]</t>
+  </si>
+  <si>
+    <t>[306. 320. 305. 317. 302. 333.]</t>
+  </si>
+  <si>
+    <t>[322. 309. 319. 313. 318. 306.]</t>
+  </si>
+  <si>
+    <t>[307. 318. 302. 332. 323. 324.]</t>
+  </si>
+  <si>
+    <t>[324. 318. 304. 320. 331. 329.]</t>
+  </si>
+  <si>
+    <t>[307. 301. 326. 304. 302. 327.]</t>
+  </si>
+  <si>
+    <t>[323. 305. 304. 326. 348. 302.]</t>
+  </si>
+  <si>
+    <t>[302. 330. 333. 300. 318. 317.]</t>
+  </si>
+  <si>
+    <t>[335. 305. 330. 313. 309. 314.]</t>
+  </si>
+  <si>
+    <t>[0.8408417701721191, 0.8886983394622803, 0.9024162292480469, 0.9111457467079163, 0.9222135543823242, 0.9296960234642029, 0.9315666556358337, 0.9370226263999939, 0.9362431764602661, 0.9437256455421448, 0.9437256455421448, 0.9532346129417419, 0.9527669548988342, 0.9555729031562805, 0.9541699290275574, 0.9605611562728882, 0.9628994464874268, 0.965393602848053, 0.9666407108306885, 0.9710054397583008, 0.9688230752944946, 0.9716290235519409, 0.9702260494232178, 0.9773967266082764, 0.9755260944366455, 0.9730319380760193, 0.9756820201873779, 0.9781761765480042, 0.9739672541618347, 0.9752143621444702]</t>
+  </si>
+  <si>
+    <t>[0.8088166117668152, 0.889010488986969, 0.9022979736328125, 0.9101141095161438, 0.9119899868965149, 0.9193372130393982, 0.9249648451805115, 0.9305924773216248, 0.936220109462738, 0.9357511401176453, 0.9452868700027466, 0.9466937780380249, 0.9510707855224609, 0.9537283182144165, 0.9523214101791382, 0.9562295079231262, 0.9548225998878479, 0.9598249197006226, 0.960919201374054, 0.9657651782035828, 0.9674847722053528]</t>
+  </si>
+  <si>
+    <t>[0.8281320929527283, 0.8890396356582642, 0.903512716293335, 0.9093924164772034, 0.9208502769470215, 0.9208502769470215, 0.9258254170417786, 0.9327604174613953, 0.9351726174354553, 0.940750777721405, 0.9470827579498291, 0.9529624581336975, 0.9546208381652832, 0.9519071578979492, 0.9503995180130005, 0.9591436982154846, 0.9565807580947876, 0.9641187787055969, 0.96758633852005]</t>
+  </si>
+  <si>
+    <t>[0.8389006853103638, 0.8817188143730164, 0.8981172442436218, 0.9040388464927673, 0.9122380614280701, 0.9231703877449036, 0.9262071251869202, 0.9275736212730408, 0.9372912049293518, 0.9412389993667603, 0.9435165524482727, 0.9467051029205322, 0.9508047103881836, 0.9539933204650879, 0.9561190605163574, 0.956574559211731, 0.9579411149024963, 0.9631035327911377, 0.9593076109886169, 0.9650774598121643, 0.9702398777008057, 0.9620406627655029, 0.9679623246192932, 0.9705435633659363, 0.973276674747467, 0.9725174903869629, 0.974339485168457, 0.976161539554596, 0.9719101190567017, 0.9775280952453613, 0.981475830078125, 0.9796538352966309, 0.9811722040176392]</t>
+  </si>
+  <si>
+    <t>[0.857487142086029, 0.9032776355743408, 0.9119537472724915, 0.9244858622550964, 0.9267352223396301, 0.9302698969841003, 0.9384639859199524, 0.9366966485977173, 0.9368573427200317, 0.9460154175758362, 0.9497107863426208, 0.948586106300354, 0.9609575867652893, 0.9564588665962219, 0.9607968926429749, 0.9640102982521057, 0.958226203918457, 0.9667416214942932, 0.9624035954475403, 0.9722043871879578, 0.9685090184211731, 0.9702763557434082, 0.9787917733192444]</t>
+  </si>
+  <si>
+    <t>[0.822295606136322, 0.886705219745636, 0.8972749710083008, 0.9002477526664734, 0.9086705446243286, 0.919405460357666, 0.916597843170166, 0.921387255191803, 0.9284888505935669, 0.9349297881126404, 0.9425268173217773, 0.9445086717605591, 0.9438480734825134, 0.9456647634506226, 0.9555739164352417, 0.9544178247451782, 0.9517753720283508, 0.9582163691520691, 0.9628406167030334]</t>
+  </si>
+  <si>
+    <t>[0.8392442464828491, 0.8872541189193726, 0.8945330381393433, 0.9137370586395264, 0.9217903017997742, 0.9208610653877258, 0.9236487746238708, 0.9332507252693176, 0.9360384345054626, 0.9413040280342102, 0.9457952380180359, 0.9426978230476379, 0.9526095986366272, 0.9490475654602051, 0.9561715722084045, 0.9605079889297485, 0.9588043689727783, 0.9615920782089233, 0.9682515263557434, 0.9680966138839722, 0.9687161445617676, 0.9645346403121948, 0.9645346403121948, 0.9670125246047974]</t>
+  </si>
+  <si>
+    <t>[0.846950352191925, 0.8872350454330444, 0.9063258171081543, 0.9060022830963135, 0.9176508784294128, 0.9234751462936401, 0.9268726706504822, 0.9304319620132446, 0.9233133792877197, 0.931079089641571, 0.9456398487091064, 0.944021999835968, 0.9503316879272461, 0.9508170485496521, 0.955994188785553, 0.9556705951690674]</t>
+  </si>
+  <si>
+    <t>[0.8472433686256409, 0.8939993977546692, 0.9069448709487915, 0.912884533405304, 0.9208041429519653, 0.9311605095863342, 0.9346634149551392, 0.9355772137641907, 0.9399939179420471, 0.9497410655021667, 0.9486749768257141, 0.9509595036506653, 0.9605543613433838, 0.9533962607383728, 0.9546146988868713, 0.95933598279953]</t>
+  </si>
+  <si>
+    <t>[0.8364011645317078, 0.88697749376297, 0.9022879600524902, 0.9096851944923401, 0.9181145429611206, 0.9193187952041626, 0.9272320866584778, 0.9299845099449158, 0.9301565289497375, 0.941166341304779, 0.9403061866760254, 0.9489076137542725, 0.9480474591255188, 0.953208327293396, 0.9509719610214233, 0.9581971168518066, 0.9607775807380676, 0.9667985439300537, 0.9630139470100403, 0.9674866795539856]</t>
+  </si>
+  <si>
+    <t>[0.8449869751930237, 0.8951170444488525, 0.9078301191329956, 0.9121640920639038, 0.9261773824691772, 0.9214100241661072, 0.9267552495002747, 0.9377347826957703, 0.9403351545333862, 0.941490888595581, 0.9451025724411011, 0.945824921131134, 0.9530482292175293, 0.9516035914421082, 0.9575267434120178, 0.9568043947219849, 0.9633054137229919, 0.9592603445053101, 0.9628720283508301, 0.9667726159095764, 0.9677838683128357, 0.9696619510650635, 0.9699508547782898, 0.9745738506317139, 0.9741404056549072, 0.9728401899337769, 0.9737070202827454, 0.9786189198493958, 0.9758740067481995, 0.9781854748725891, 0.9791967868804932, 0.976018488407135, 0.9806414246559143, 0.9813637733459473, 0.9825195074081421, 0.9750072360038757, 0.9820861220359802, 0.9815082550048828, 0.9842531085014343]</t>
+  </si>
+  <si>
+    <t>[0.8388573527336121, 0.8937815427780151, 0.9015151262283325, 0.9142992496490479, 0.921875, 0.9220328330993652, 0.9303977489471436, 0.9341856241226196, 0.9376578330993652, 0.9397096037864685, 0.9455492496490479, 0.9452335834503174, 0.9580176472663879, 0.9562815427780151, 0.9510732293128967, 0.9635416865348816, 0.9591224789619446, 0.9610164165496826, 0.9644886255264282, 0.9670138955116272, 0.9674873948097229, 0.96875, 0.9700126051902771, 0.9659090638160706, 0.9734848737716675, 0.9747474789619446, 0.973169207572937, 0.9756944179534912, 0.9758522510528564, 0.9758522510528564, 0.9763257503509521, 0.9769570827484131, 0.9786931872367859, 0.9807449579238892, 0.9797979593276978, 0.9796401262283325, 0.9805871248245239, 0.9821653962135315, 0.9865846037864685, 0.9809027910232544, 0.9826388955116272, 0.9829545617103577, 0.9865846037864685, 0.9832702279090881, 0.9831123948097229, 0.9820075631141663]</t>
+  </si>
+  <si>
+    <t>[0.834037721157074, 0.8922301530838013, 0.904096245765686, 0.9076722860336304, 0.9179129004478455, 0.9219765663146973, 0.929616391658783, 0.9317294955253601, 0.9294538497924805, 0.9418075680732727, 0.9413198828697205, 0.9403446316719055, 0.9471716284751892, 0.9492847919464111, 0.9530234336853027, 0.9512353539466858, 0.9541612267494202, 0.952373206615448, 0.9583874940872192, 0.9557867646217346]</t>
+  </si>
+  <si>
+    <t>[0.8349072337150574, 0.88988196849823, 0.9005059003829956, 0.9065767526626587, 0.9141652584075928, 0.9225969910621643, 0.9295109510421753, 0.9290050864219666, 0.9365935921669006, 0.938279926776886, 0.9431703090667725, 0.9441820979118347, 0.9495784044265747, 0.9522765874862671, 0.9558178782463074, 0.9575042128562927, 0.9605396389961243, 0.9645868539810181, 0.9622259736061096, 0.9644182324409485, 0.9652613997459412, 0.961045503616333, 0.968971312046051, 0.9698144793510437, 0.976897120475769, 0.9740303754806519, 0.9748735427856445, 0.9763912558555603, 0.9752107858657837, 0.9780775904655457, 0.9819561839103699, 0.9782462120056152]</t>
+  </si>
+  <si>
+    <t>[0.8315132856369019, 0.8872075080871582, 0.8999999761581421, 0.9131045341491699, 0.9196568131446838, 0.929017186164856, 0.9249609708786011, 0.9379095435142517, 0.9366614818572998, 0.9443057775497437, 0.9430577158927917, 0.9453977942466736, 0.9486739635467529, 0.9575663208961487, 0.9588143229484558, 0.9599063992500305, 0.9625585079193115, 0.9631825089454651, 0.9636505246162415, 0.9625585079193115, 0.9633385539054871, 0.9664586782455444, 0.9656786322593689, 0.9714508652687073, 0.9708268046379089, 0.9726989269256592, 0.9751949906349182, 0.9762870669364929, 0.9794071912765503]</t>
+  </si>
+  <si>
+    <t>[0.8116065263748169, 0.8762763738632202, 0.8973791599273682, 0.9062287211418152, 0.9101429581642151, 0.9171205163002014, 0.9230769276618958, 0.9273315072059631, 0.9263104200363159, 0.9375425577163696, 0.9377127289772034, 0.9446902871131897, 0.9458815455436707, 0.950136125087738, 0.9469026327133179, 0.9547311067581177, 0.9596664309501648, 0.9572838544845581, 0.9618788361549377, 0.9661334156990051, 0.9635806679725647, 0.9605173468589783, 0.9707283973693848, 0.9664738178253174, 0.9688563942909241, 0.9714091420173645, 0.9674949049949646, 0.9773655533790588, 0.9749829769134521, 0.9765146374702454, 0.9732811450958252, 0.9821307063102722, 0.9758338928222656, 0.9763444662094116, 0.9809393882751465, 0.9739618897438049, 0.9771953821182251, 0.98179030418396, 0.9812797904014587]</t>
+  </si>
+  <si>
+    <t>[0.8408277630805969, 0.8926404118537903, 0.9018204212188721, 0.9096001386642456, 0.9114672541618347, 0.9234479665756226, 0.9268710017204285, 0.9321612119674683, 0.9365178346633911, 0.9383849501609802, 0.9456978440284729, 0.946164608001709, 0.9503656625747681, 0.948965311050415, 0.9534775018692017, 0.9581453204154968]</t>
+  </si>
+  <si>
+    <t>[0.8445571660995483, 0.8902214169502258, 0.8985239863395691, 0.9155904054641724, 0.9238929748535156, 0.9246617555618286, 0.9281980395317078, 0.9371156096458435, 0.9418818950653076, 0.9424968957901001, 0.9418818950653076, 0.9506457448005676, 0.948493242263794, 0.9558733105659485, 0.9630996584892273, 0.9607933759689331]</t>
+  </si>
+  <si>
+    <t>[0.8361674547195435, 0.8863636255264282, 0.9058207869529724, 0.9063113331794739, 0.915631115436554, 0.9247874617576599, 0.9288750886917114, 0.9345977902412415, 0.9332897067070007, 0.944408118724823, 0.9447351098060608, 0.945716142654419, 0.9478417038917542, 0.9537279009819031, 0.957161545753479, 0.9623937010765076, 0.9627207517623901, 0.9633747339248657, 0.9622302055358887, 0.9679529070854187, 0.9682798981666565, 0.9650098085403442, 0.9651733040809631, 0.9669718742370605, 0.9623937010765076, 0.9651733040809631, 0.9753106832504272, 0.9758011698722839, 0.9767822027206421]</t>
+  </si>
+  <si>
+    <t>[0.8379155993461609, 0.8913043737411499, 0.9060102105140686, 0.9108056426048279, 0.9187979698181152, 0.9226342439651489, 0.9333440065383911, 0.9355818629264832, 0.9373401403427124, 0.9422953724861145, 0.9411764740943909, 0.9445332288742065, 0.9477301836013794, 0.9593989849090576, 0.9530051350593567, 0.957001268863678, 0.9574808478355408]</t>
+  </si>
+  <si>
+    <t>[0.8408189415931702, 0.8893826603889465, 0.9081098437309265, 0.9144580364227295, 0.9219171404838562, 0.9281066656112671, 0.9289001822471619, 0.9366767406463623, 0.9330264925956726, 0.9496905207633972, 0.9488970041275024, 0.950801432132721, 0.9527059197425842, 0.9544516801834106, 0.9639739990234375, 0.9596889615058899, 0.963180422782898, 0.9634978771209717, 0.9679415822029114, 0.9693699479103088, 0.9738136529922485, 0.972226619720459, 0.9761942625045776, 0.9771465063095093, 0.9765116572380066, 0.9733375906944275, 0.975559413433075, 0.9681003093719482, 0.9811140894889832, 0.9809554219245911, 0.9828598499298096, 0.9800031781196594, 0.9830185770988464, 0.9792096614837646, 0.9814315438270569, 0.9839708209037781]</t>
+  </si>
+  <si>
+    <t>[0.8359631896018982, 0.8931623697280884, 0.9059829115867615, 0.9158448576927185, 0.9146943092346191, 0.9240631461143494, 0.9247205853462219, 0.9335963129997253, 0.9363905191421509, 0.9349112510681152, 0.9395135045051575, 0.9391847252845764, 0.9413214921951294, 0.9513477683067322, 0.9524983763694763, 0.9528270959854126, 0.9598947763442993, 0.9612097144126892, 0.9633464813232422, 0.9656475782394409, 0.9690992832183838, 0.9710716605186462, 0.9679487347602844, 0.9684418439865112, 0.9603878855705261, 0.9695923924446106, 0.9728797078132629, 0.9768244624137878, 0.9732084274291992]</t>
+  </si>
+  <si>
+    <t>[0.8333864808082581, 0.8899872303009033, 0.9111925959587097, 0.9111925959587097, 0.9169324040412903, 0.9263392686843872, 0.925382673740387, 0.938456654548645, 0.9395726919174194, 0.9437181353569031, 0.9427614808082581, 0.9427614808082581, 0.9494578838348389, 0.954081654548645, 0.956632673740387, 0.957429826259613]</t>
+  </si>
+  <si>
+    <t>[0.8314834833145142, 0.8899484276771545, 0.9001094102859497, 0.9126152992248535, 0.9154291152954102, 0.9235579371452332, 0.93231201171875, 0.9349695444107056, 0.9379396438598633, 0.9449741840362549, 0.9440362453460693, 0.9490386247634888, 0.9534156918525696, 0.9626387357711792, 0.9571674466133118, 0.9574800729751587, 0.9620134234428406, 0.9668594598770142, 0.9637330174446106, 0.9646709561347961, 0.9671720862388611, 0.9709238409996033, 0.9702985882759094, 0.9742066860198975, 0.9765515327453613]</t>
+  </si>
+  <si>
+    <t>[0.819244921207428, 0.8783829212188721, 0.8885733485221863, 0.8965920209884644, 0.8920814990997314, 0.9096224308013916, 0.9141329526901245, 0.9228199124336243, 0.9305045008659363, 0.9214834570884705, 0.9291680455207825, 0.9201470017433167, 0.9386903047561646, 0.9388573169708252, 0.9447042942047119, 0.9477113485336304, 0.9487136602401733, 0.9375208616256714, 0.9480454325675964]</t>
+  </si>
+  <si>
+    <t>[0.8400430083274841, 0.8916717767715454, 0.8993546366691589, 0.915642261505127, 0.9211739301681519, 0.9233251214027405, 0.9265519380569458, 0.9314689636230469, 0.9393054842948914, 0.9396128058433533, 0.9442225098609924, 0.9457590579986572, 0.9509834051132202, 0.9563614130020142, 0.9583589434623718, 0.9612784385681152]</t>
+  </si>
+  <si>
+    <t>[0.8412260413169861, 0.8997701406478882, 0.9039080739021301, 0.9155555367469788, 0.9239846467971802, 0.9221456050872803, 0.9302682280540466, 0.935172438621521, 0.9402298927307129, 0.9432950019836426, 0.9480459690093994, 0.950498104095459, 0.9550957679748535, 0.9552490711212158, 0.9592337012290955, 0.9569348692893982, 0.961685836315155]</t>
+  </si>
+  <si>
+    <t>[0.8540759086608887, 0.8970130681991577, 0.9044803977012634, 0.9161481261253357, 0.9170815348625183, 0.920659601688385, 0.9276602268218994, 0.9351275563240051, 0.939794659614563, 0.9419726133346558, 0.9388612508773804, 0.9491288065910339, 0.9472619891166687, 0.9500622153282166, 0.9578406810760498, 0.9606409668922424, 0.9592407941818237, 0.9639078974723816, 0.9676415920257568, 0.9665525555610657, 0.9704418182373047, 0.9681082963943481, 0.9707529544830322, 0.9743310809135437, 0.9698195457458496, 0.9738643169403076, 0.9772868752479553]</t>
+  </si>
+  <si>
+    <t>[0.8250457644462585, 0.8880414962768555, 0.8994814157485962, 0.9077181220054626, 0.913666844367981, 0.919615626335144, 0.919615626335144, 0.9293776750564575, 0.932580828666687, 0.9321232438087463, 0.9394447803497314, 0.9400548934936523, 0.9481391310691833, 0.9507321715354919, 0.9528676271438599, 0.9579011797904968, 0.9589688777923584]</t>
+  </si>
+  <si>
+    <t>[0.8399026989936829, 0.8884022831916809, 0.9004055261611938, 0.9135441780090332, 0.9205190539360046, 0.9180859923362732, 0.9263584613800049, 0.9318735003471375, 0.9404703974723816, 0.9370640516281128, 0.9373884797096252, 0.9471208453178406, 0.9503649473190308, 0.9493917226791382, 0.9537712931632996, 0.9599351286888123, 0.9592862725257874, 0.9571776390075684, 0.964152455329895, 0.9638280868530273, 0.96739661693573, 0.9677209854125977, 0.9717761278152466, 0.9719383716583252]</t>
+  </si>
+  <si>
+    <t>[0.8477359414100647, 0.8961285948753357, 0.9142758250236511, 0.9215347170829773, 0.9239543676376343, 0.9310404658317566, 0.9360525608062744, 0.9414103031158447, 0.9438299536705017, 0.9500518441200256, 0.9528171420097351, 0.9521258473396301, 0.9566194415092468, 0.9597303867340088, 0.964569628238678, 0.9621500372886658, 0.9630141854286194, 0.9688904285430908, 0.9720013737678528, 0.9758036732673645, 0.9714828729629517]</t>
+  </si>
+  <si>
+    <t>[0.8396883010864258, 0.890417754650116, 0.9003646969795227, 0.8957228064537048, 0.9187665581703186, 0.9210875034332275, 0.9222480058670044, 0.9268898963928223, 0.9341843724250793, 0.9355106353759766, 0.9406498670578003, 0.946452260017395, 0.9413129687309265, 0.9499337077140808, 0.9527519941329956, 0.9555702805519104, 0.960212230682373, 0.9582228064537048, 0.9608753323554993, 0.9603779911994934, 0.9638594388961792, 0.971485435962677, 0.9681697487831116]</t>
+  </si>
+  <si>
+    <t>[0.8367569446563721, 0.8848428130149841, 0.8976035118103027, 0.909119188785553, 0.9140989780426025, 0.9154995083808899, 0.9228135943412781, 0.9309056997299194, 0.9391534328460693, 0.9407095909118652, 0.9394646883010864, 0.9480236768722534, 0.9439775943756104, 0.9484905004501343, 0.9505135416984558, 0.9581388235092163, 0.9590725302696228, 0.9587612748146057, 0.9600062370300293]</t>
+  </si>
+  <si>
+    <t>[0.8303784728050232, 0.8912376165390015, 0.9030003547668457, 0.9140811562538147, 0.9180020689964294, 0.9205591678619385, 0.9289124011993408, 0.9360722899436951, 0.9364132285118103, 0.9410160183906555, 0.9444255232810974, 0.9454483389854431, 0.9510740041732788, 0.9549948573112488, 0.957381546497345, 0.957040548324585, 0.9580634236335754, 0.9582338929176331, 0.9587453007698059, 0.9659051895141602, 0.9662461876869202, 0.9652233123779297, 0.9706785082817078, 0.9720422625541687, 0.9717013239860535, 0.9763041138648987, 0.9725536704063416]</t>
+  </si>
+  <si>
+    <t>[0.8098304271697998, 0.8848932385444641, 0.8955715894699097, 0.9128454923629761, 0.9195979833602905, 0.9274497628211975, 0.932945966720581, 0.9343593120574951, 0.9396985173225403, 0.9411118030548096, 0.9462939500808716, 0.9495916962623596, 0.9541457295417786, 0.9532034993171692, 0.9568153023719788, 0.9550879597663879, 0.9651381969451904, 0.96027010679245, 0.9674937129020691, 0.9693781137466431, 0.966865599155426, 0.9689070582389832, 0.9701633453369141, 0.9734610319137573, 0.9729899764060974, 0.9756595492362976]</t>
+  </si>
+  <si>
+    <t>[0.8320268988609314, 0.8892977237701416, 0.8998560309410095, 0.9102543592453003, 0.9182530641555786, 0.9270516633987427, 0.9315309524536133, 0.9316909313201904, 0.9371300339698792, 0.9436889886856079, 0.9427291750907898, 0.946728527545929, 0.9534474611282349, 0.9582467079162598, 0.9571268558502197, 0.963205873966217, 0.9635258316993713, 0.9673652052879333, 0.9675251841545105, 0.9665653705596924, 0.9696048498153687, 0.9678451418876648, 0.9702447652816772, 0.9720044732093811, 0.9753639698028564, 0.976803719997406, 0.9755238890647888, 0.9752039909362793, 0.9800031781196594, 0.980643093585968, 0.9803231358528137]</t>
+  </si>
+  <si>
+    <t>[0.8178607225418091, 0.8970736861228943, 0.8987554907798767, 0.9105280637741089, 0.9233098030090332, 0.925159752368927, 0.9281870126724243, 0.9340733289718628, 0.9429869055747986, 0.9434913992881775, 0.9487050175666809, 0.9505549669265747, 0.9562731385231018, 0.9567776918411255, 0.9641776084899902, 0.961823046207428, 0.9579549431800842, 0.9594685435295105, 0.9665321111679077, 0.9678775668144226]</t>
+  </si>
+  <si>
+    <t>[0.8061602711677551, 0.8874375224113464, 0.8990485668182373, 0.9127560257911682, 0.9172714352607727, 0.9161425828933716, 0.9303337931632996, 0.9263021945953369, 0.934365451335907, 0.9354943037033081, 0.9427511692047119, 0.9508143663406372, 0.947589099407196, 0.9537171721458435, 0.9587163329124451, 0.9609740376472473, 0.9621028900146484, 0.9629092216491699, 0.9658119678497314, 0.9656506776809692, 0.9693597555160522, 0.9700048565864563]</t>
+  </si>
+  <si>
+    <t>[0.848615288734436, 0.8903716206550598, 0.9032859802246094, 0.908308207988739, 0.9154828786849976, 0.9154828786849976, 0.9238054156303406, 0.9306930899620056, 0.9306930899620056, 0.9341368675231934, 0.9401635527610779, 0.9461902976036072, 0.9490601420402527, 0.9512125253677368, 0.9510689973831177, 0.9547998309135437, 0.9589611291885376, 0.9634093642234802, 0.9638398885726929, 0.9652748107910156, 0.9649878144264221, 0.9710144996643066]</t>
+  </si>
+  <si>
+    <t>[0.8492165207862854, 0.8872721195220947, 0.9096578359603882, 0.9139750599861145, 0.9235689043998718, 0.9293252229690552, 0.9307643175125122, 0.9406779408454895, 0.9362008571624756, 0.9392389059066772, 0.9473936557769775, 0.9472337961196899, 0.9475535750389099, 0.9505916237831116, 0.9552286267280579, 0.9547489881515503, 0.9597057700157166, 0.9640230536460876, 0.9657819271087646, 0.9627438187599182, 0.9677006602287292, 0.9681803584098816, 0.973297119140625, 0.9734569787979126, 0.9777742028236389]</t>
+  </si>
+  <si>
+    <t>[0.8292267322540283, 0.8874942064285278, 0.9020610451698303, 0.9076398611068726, 0.9087246060371399, 0.918642520904541, 0.9214318990707397, 0.9325894713401794, 0.9373934864997864, 0.939562976360321, 0.9448318481445312, 0.9439020752906799, 0.9435921311378479, 0.9463815093040466, 0.9542848467826843, 0.9573841691017151, 0.9535099864006042]</t>
+  </si>
+  <si>
+    <t>[0.8359436988830566, 0.8906818628311157, 0.9022306799888611, 0.9120392203330994, 0.9194747805595398, 0.9231134057044983, 0.92833411693573, 0.927226722240448, 0.9367188811302185, 0.9405157566070557, 0.9460528492927551, 0.9489004611968994, 0.9528555870056152, 0.9509571194648743, 0.9560196399688721, 0.9588672518730164, 0.961240291595459, 0.9626641273498535, 0.9590254426002502, 0.9678848385810852, 0.9636133313179016, 0.9653536081314087, 0.9683594107627869, 0.9731055498123169, 0.9693086743354797, 0.9778516292572021, 0.9795918464660645, 0.9750039577484131, 0.9746875762939453]</t>
+  </si>
+  <si>
+    <t>[0.8388633131980896, 0.8938896059989929, 0.9086728096008301, 0.9139290452003479, 0.9226347208023071, 0.9213206171989441, 0.9377464056015015, 0.9356110095977783, 0.9359395503997803, 0.9462877511978149, 0.9484231472015381, 0.9500657320022583, 0.9507227540016174, 0.953186571598053, 0.9594283699989319, 0.960249662399292, 0.9630420207977295]</t>
+  </si>
+  <si>
+    <t>[0.8435384631156921, 0.886715829372406, 0.8976982235908508, 0.9100345969200134, 0.9121407866477966, 0.9192116856575012, 0.9276365041732788, 0.9288401007652283, 0.9338047504425049, 0.9362118244171143, 0.937565803527832, 0.947043776512146, 0.9465924501419067, 0.9538137316703796, 0.9596810340881348, 0.9562208652496338, 0.9532119631767273, 0.954866886138916, 0.9626899361610413, 0.966150164604187, 0.9658492803573608, 0.967955470085144, 0.9691590070724487, 0.967955470085144, 0.9775838851928711, 0.9757785201072693, 0.9721679091453552]</t>
+  </si>
+  <si>
+    <t>[0.8330140709877014, 0.8804278373718262, 0.8933588862419128, 0.9101213216781616, 0.9158684611320496, 0.9204980731010437, 0.9305555820465088, 0.9275223612785339, 0.9276819825172424, 0.9367815852165222, 0.9345465898513794, 0.9454023241996765, 0.9471583366394043, 0.9489144086837769, 0.9546615481376648, 0.9506704807281494, 0.9562579989433289, 0.961685836315155, 0.9596104621887207, 0.962803304195404, 0.9636015295982361, 0.9642400741577148]</t>
+  </si>
+  <si>
+    <t>[0.8427290320396423, 0.8947789669036865, 0.9071108102798462, 0.9144778847694397, 0.9220051169395447, 0.9226457476615906, 0.9218449592590332, 0.9370595812797546, 0.9300128221511841, 0.9372197389602661, 0.9399423599243164, 0.9402626752853394, 0.9509929418563843, 0.9509929418563843, 0.9585201740264893, 0.9562780261039734, 0.9545163512229919, 0.955477237701416, 0.9602818489074707, 0.963004469871521, 0.9687700271606445]</t>
+  </si>
+  <si>
+    <t>[0.8301302790641785, 0.8892508149147034, 0.903094470500946, 0.9065146446228027, 0.921986997127533, 0.9223126769065857, 0.9265472292900085, 0.9332247376441956, 0.9327361583709717, 0.9408794641494751, 0.9399023056030273, 0.945765495300293, 0.9522801041603088, 0.9550488591194153, 0.9526058435440063, 0.9630293250083923, 0.9620521068572998, 0.9628664255142212, 0.9635179042816162, 0.966449499130249, 0.9661237597465515, 0.9697068333625793, 0.9690553545951843, 0.9718241095542908, 0.975570023059845, 0.9765472412109375, 0.9724755883216858]</t>
+  </si>
+  <si>
+    <t>[0.8420614004135132, 0.8940960764884949, 0.8982654809951782, 0.9076050519943237, 0.9201133847236633, 0.9252835512161255, 0.9334556460380554, 0.9322881698608398, 0.9362908601760864, 0.9422948360443115, 0.9432955384254456, 0.9452968835830688, 0.9518011808395386, 0.9514676332473755, 0.9559706449508667, 0.9573048949241638, 0.963642418384552, 0.9553035497665405, 0.9638091921806335, 0.9668111801147461, 0.9666444063186646, 0.9691460728645325, 0.9638091921806335, 0.9721481204032898]</t>
+  </si>
+  <si>
+    <t>[0.8371521830558777, 0.8859246969223022, 0.9016366600990295, 0.9099836349487305, 0.918003261089325, 0.9253682494163513, 0.9268412590026855, 0.9378068447113037, 0.9386252164840698, 0.9342062473297119, 0.9450081586837769, 0.9448445439338684, 0.9474631547927856, 0.9566285014152527, 0.9518821835517883, 0.9597381353378296, 0.958756148815155, 0.9592471122741699, 0.9669394493103027, 0.9641571044921875, 0.9692307710647583, 0.972176730632782, 0.9664484262466431, 0.9729951024055481, 0.9708674550056458, 0.972176730632782, 0.9772503972053528, 0.9772503972053528, 0.9728314280509949, 0.9783960580825806, 0.977414071559906]</t>
+  </si>
+  <si>
+    <t>[0.8306045532226562, 0.8783060312271118, 0.8890113234519958, 0.9011334776878357, 0.9074307084083557, 0.9178211688995361, 0.9157745838165283, 0.9294710159301758, 0.9296284914016724, 0.93120276927948, 0.9395465850830078, 0.9420654773712158, 0.9447417855262756, 0.9502518773078918, 0.9478904008865356, 0.9504092931747437, 0.9570214152336121, 0.9590680003166199, 0.9573362469673157, 0.9582808613777161, 0.9607997536659241, 0.9644206762313843, 0.9664672613143921, 0.9630037546157837, 0.9634760618209839, 0.9674118161201477, 0.9681990146636963, 0.9674118161201477]</t>
+  </si>
+  <si>
+    <t>[0.8409475684165955, 0.8962774872779846, 0.908460259437561, 0.9201353788375854, 0.9241963028907776, 0.9328257441520691, 0.9385786652565002, 0.9406091570854187, 0.9478849172592163, 0.9546531438827515, 0.9546531438827515, 0.9538071155548096, 0.9617597460746765, 0.9587140679359436, 0.9636209607124329, 0.9664974808692932, 0.968189537525177, 0.9680203199386597, 0.9724196195602417, 0.9759729504585266, 0.9763113260269165, 0.978341817855835, 0.980033814907074, 0.9781726002693176, 0.9774957895278931, 0.9807106852531433, 0.9824026823043823, 0.9818950891494751]</t>
+  </si>
+  <si>
+    <t>[0.840753436088562, 0.8949252963066101, 0.9073785543441772, 0.9106475710868835, 0.9206101894378662, 0.9240348935127258, 0.9269925355911255, 0.9285491704940796, 0.9405354857444763, 0.9436488151550293, 0.9430261254310608, 0.9475404620170593, 0.9529888033866882, 0.9508094787597656, 0.9585927724838257, 0.9575031399726868, 0.9615504145622253, 0.9651307463645935, 0.9691780805587769]</t>
+  </si>
+  <si>
+    <t>[0.8392685055732727, 0.9003849625587463, 0.9077638983726501, 0.9207571148872375, 0.92460697889328, 0.9287776947021484, 0.937279462814331, 0.9398459792137146, 0.9411292672157288, 0.9478665590286255, 0.9504331350326538, 0.9579724073410034, 0.9608597755432129, 0.9606993794441223, 0.9602181315422058, 0.9643888473510742, 0.9648700952529907, 0.9746550917625427]</t>
+  </si>
+  <si>
+    <t>[0.8323087692260742, 0.8862704634666443, 0.8994194269180298, 0.907616138458252, 0.9115437269210815, 0.9231557250022888, 0.9243510961532593, 0.9347677826881409, 0.9380123019218445, 0.9332308769226074, 0.9398906826972961, 0.9484289884567261, 0.9458674788475037, 0.9492827653884888, 0.9559426307678223, 0.9617486596107483, 0.9547472596168518, 0.9598702192306519, 0.9591871500015259]</t>
+  </si>
+  <si>
+    <t>[0.8206392526626587, 0.8753825426101685, 0.8928935527801514, 0.9000340104103088, 0.908364474773407, 0.9165250062942505, 0.9255355596542358, 0.928935706615448, 0.9319959282875061, 0.9384562969207764, 0.939816415309906, 0.9452567100524902, 0.9438966512680054, 0.9479768872261047, 0.9540972709655762, 0.9566473960876465, 0.955457329750061, 0.9617477059364319]</t>
+  </si>
+  <si>
+    <t>[0.8306529521942139, 0.8944998383522034, 0.9126728773117065, 0.9112254977226257, 0.9252170920372009, 0.9305242896080017, 0.9314892292022705, 0.9409778118133545, 0.9429076910018921, 0.9480540156364441, 0.9477323889732361, 0.9573817849159241, 0.9565776586532593, 0.9622064828872681, 0.9654229879379272, 0.9694435596466064, 0.9692827463150024, 0.9593116641044617, 0.9689610600471497, 0.9734641313552856, 0.9691219329833984, 0.9729816913604736, 0.9744290709495544, 0.9733033180236816, 0.981183648109436, 0.9795754551887512]</t>
+  </si>
+  <si>
+    <t>[0.825438916683197, 0.8839019536972046, 0.8963232636451721, 0.904769778251648, 0.917853593826294, 0.9191785454750061, 0.9246439337730408, 0.9249751567840576, 0.9317654967308044, 0.9383901953697205, 0.9383901953697205, 0.9413713216781616, 0.9435243606567383, 0.948989748954773, 0.949155330657959, 0.9529645442962646]</t>
+  </si>
+  <si>
+    <t>[0.8389304280281067, 0.8862008452415466, 0.9054591655731201, 0.9103931188583374, 0.9204201698303223, 0.9231259226799011, 0.925035834312439, 0.9320388436317444, 0.9318796992301941, 0.9379277229309082, 0.9431800246238708, 0.9462040662765503, 0.9532070755958557, 0.9527295827865601, 0.9594143033027649, 0.9605284333229065]</t>
+  </si>
+  <si>
+    <t>[0.8281526565551758, 0.8851667046546936, 0.89853435754776, 0.8996617794036865, 0.905942976474762, 0.9146400094032288, 0.9125462770462036, 0.9194717407226562, 0.922853946685791, 0.9231760501861572, 0.9276856184005737, 0.9307457208633423, 0.9370269179344177, 0.9342889189720154, 0.9391206502914429, 0.9457239508628845]</t>
+  </si>
+  <si>
+    <t>[0.8493711352348328, 0.8916502594947815, 0.9060463905334473, 0.9149871468544006, 0.9201394319534302, 0.9277163147926331, 0.9269586205482483, 0.9333232045173645, 0.934838593006134, 0.9439309239387512, 0.9452947378158569, 0.9477193355560303, 0.9481739401817322, 0.9531747102737427, 0.9489316344261169, 0.9551447033882141, 0.9610546827316284, 0.959084689617157, 0.9637823700904846, 0.9645400643348694]</t>
+  </si>
+  <si>
+    <t>[0.8580645322799683, 0.8725806474685669, 0.8846774101257324, 0.8766129016876221, 0.8951612710952759, 0.8838709592819214, 0.8911290168762207, 0.8854838609695435, 0.8999999761581421, 0.8935483694076538, 0.8838709592819214, 0.897580623626709, 0.8927419185638428, 0.8862903118133545, 0.9008064270019531, 0.896774172782898, 0.8838709592819214, 0.8846774101257324, 0.8725806474685669, 0.8806451559066772, 0.875806450843811, 0.8814516067504883, 0.874193549156189, 0.8862903118133545, 0.8661290407180786, 0.8822580575942993, 0.8911290168762207, 0.8822580575942993, 0.8895161151885986, 0.8822580575942993]</t>
+  </si>
+  <si>
+    <t>[0.8508682250976562, 0.8610827326774597, 0.8804903030395508, 0.8794688582420349, 0.898876428604126, 0.9162410497665405, 0.8702757954597473, 0.8743615746498108, 0.8917262554168701, 0.8733401298522949, 0.8549540638923645, 0.8764045238494873, 0.892747700214386, 0.8682329058647156, 0.8825331926345825, 0.8631256222724915, 0.8692543506622314, 0.8968334794044495, 0.8835546374320984, 0.8845760822296143, 0.8702757954597473]</t>
+  </si>
+  <si>
+    <t>[0.8947368264198303, 0.9046529531478882, 0.9016018509864807, 0.9115179181098938, 0.9023646116256714, 0.9107551574707031, 0.8985507488250732, 0.9077040553092957, 0.9016018509864807, 0.9031273722648621, 0.9046529531478882, 0.8970251679420471, 0.9061784744262695, 0.8993135094642639, 0.887109100818634, 0.8970251679420471, 0.8985507488250732, 0.8802440762519836, 0.8924484848976135]</t>
+  </si>
+  <si>
+    <t>[0.8857381343841553, 0.8782318830490112, 0.9165971875190735, 0.9099249243736267, 0.9024186730384827, 0.9082568883895874, 0.8915762901306152, 0.9149290919303894, 0.9065888524055481, 0.9190992712974548, 0.9124270081520081, 0.9115930199623108, 0.8965804576873779, 0.9107589721679688, 0.9157631397247314, 0.904920756816864, 0.9190992712974548, 0.9224353432655334, 0.8999165892601013, 0.9165971875190735, 0.9015846252441406, 0.9174311757087708, 0.9107589721679688, 0.9174311757087708, 0.905754804611206, 0.8565471172332764, 0.9024186730384827, 0.9007506370544434, 0.89741450548172, 0.9015846252441406, 0.9099249243736267, 0.905754804611206, 0.8840700387954712]</t>
+  </si>
+  <si>
+    <t>[0.8693467378616333, 0.8736540079116821, 0.8700646162033081, 0.8736540079116821, 0.8578607439994812, 0.8686288595199585, 0.8736540079116821, 0.875089704990387, 0.8679109811782837, 0.8650394678115845, 0.8715003728866577, 0.8607322573661804, 0.8700646162033081, 0.8478105068206787, 0.8628858327865601, 0.8707824945449829, 0.8614501357078552, 0.8614501357078552, 0.8664752244949341, 0.8664752244949341, 0.8621679544448853, 0.8614501357078552, 0.8679109811782837]</t>
+  </si>
+  <si>
+    <t>[0.9247449040412903, 0.9247449040412903, 0.9292091727256775, 0.9304847121238708, 0.920918345451355, 0.9234693646430969, 0.9272959232330322, 0.9285714030265808, 0.9285714030265808, 0.925382673740387, 0.9285714030265808, 0.9247449040412903, 0.925382673740387, 0.9298469424247742, 0.9100765585899353, 0.8973214030265808, 0.925382673740387, 0.9145408272743225, 0.9145408272743225]</t>
+  </si>
+  <si>
+    <t>[0.9186369776725769, 0.9283727407455444, 0.9318497776985168, 0.9346314072608948, 0.9332405924797058, 0.9360222816467285, 0.9353268146514893, 0.938108503818512, 0.9422809481620789, 0.92767733335495, 0.9297635555267334, 0.9394993185997009, 0.938108503818512, 0.9339359998703003, 0.9353268146514893, 0.9353268146514893, 0.9235048890113831, 0.9325451850891113, 0.9311543703079224, 0.9242002964019775, 0.9214186072349548, 0.9311543703079224, 0.913073718547821, 0.9102920889854431]</t>
+  </si>
+  <si>
+    <t>[0.8836501836776733, 0.8266159892082214, 0.8228136897087097, 0.8577947020530701, 0.8479087352752686, 0.8532319664955139, 0.8486692309379578, 0.8349809646606445, 0.8479087352752686, 0.8433459997177124, 0.831939160823822, 0.8365018963813782, 0.8418250679969788, 0.8456273674964905, 0.8539924025535583, 0.8517110347747803]</t>
+  </si>
+  <si>
+    <t>[0.8852755427360535, 0.8681120276451111, 0.8717253804206848, 0.8690153360366821, 0.8726287484169006, 0.8617886304855347, 0.8572719097137451, 0.8753387331962585, 0.8717253804206848, 0.8644986152648926, 0.8672086596488953, 0.8654019832611084, 0.8599819540977478, 0.8644986152648926, 0.8635953068733215, 0.8735320568084717]</t>
+  </si>
+  <si>
+    <t>[0.8859649300575256, 0.8778677582740784, 0.8785424828529358, 0.8582996129989624, 0.8981106877326965, 0.8690958023071289, 0.8744939565658569, 0.8879892230033875, 0.8832658529281616, 0.8839406371116638, 0.881916344165802, 0.8900135159492493, 0.8825910687446594, 0.8711200952529907, 0.8744939565658569, 0.8785424828529358, 0.8920378088951111, 0.8839406371116638, 0.8960863947868347, 0.8812415599822998]</t>
+  </si>
+  <si>
+    <t>[0.8657205104827881, 0.8777292370796204, 0.8799126744270325, 0.8591703176498413, 0.875545859336853, 0.874454140663147, 0.8591703176498413, 0.8733624219894409, 0.8799126744270325, 0.8788209557533264, 0.8777292370796204, 0.874454140663147, 0.8842794895172119, 0.8886463046073914, 0.8919214010238647, 0.8919214010238647, 0.885371208190918, 0.8820960521697998, 0.885371208190918, 0.8820960521697998, 0.8788209557533264, 0.885371208190918, 0.8875545859336853, 0.8941047787666321, 0.875545859336853, 0.8733624219894409, 0.8679039478302002, 0.8788209557533264, 0.874454140663147, 0.8875545859336853, 0.8722707629203796, 0.875545859336853, 0.8919214010238647, 0.8820960521697998, 0.8679039478302002, 0.8668122291564941, 0.8886463046073914, 0.8777292370796204, 0.8886463046073914]</t>
+  </si>
+  <si>
+    <t>[0.8793455958366394, 0.8943421840667725, 0.8800272941589355, 0.8793455958366394, 0.892978847026825, 0.888207197189331, 0.875937283039093, 0.8950238823890686, 0.8800272941589355, 0.888207197189331, 0.8738923072814941, 0.8820722699165344, 0.8868439197540283, 0.8820722699165344, 0.8916155695915222, 0.878663957118988, 0.8841172456741333, 0.8827539086341858, 0.89570552110672, 0.89570552110672, 0.878663957118988, 0.892978847026825, 0.8813905715942383, 0.8800272941589355, 0.8834356069564819, 0.8902522325515747, 0.8684390187263489, 0.8888888955116272, 0.8970688581466675, 0.8875255584716797, 0.8997954726219177, 0.892978847026825, 0.89570552110672, 0.8977504968643188, 0.8902522325515747, 0.8950238823890686, 0.8704839944839478, 0.8691206574440002, 0.8916155695915222, 0.8895705342292786, 0.8847988843917847, 0.8820722699165344, 0.8847988843917847, 0.8779822587966919, 0.8970688581466675, 0.892978847026825]</t>
+  </si>
+  <si>
+    <t>[0.8958485126495361, 0.8922068476676941, 0.9024034738540649, 0.9067735075950623, 0.9104151725769043, 0.9082301259040833, 0.9016751646995544, 0.9031318426132202, 0.8980334997177124, 0.9067735075950623, 0.8929351568222046, 0.9031318426132202, 0.9038601517677307, 0.900946855545044, 0.8965768218040466, 0.8965768218040466, 0.8973051905632019, 0.9024034738540649, 0.8994901776313782, 0.888565182685852]</t>
+  </si>
+  <si>
+    <t>[0.8940766453742981, 0.9066202044487, 0.9066202044487, 0.9108014106750488, 0.91358882188797, 0.91358882188797, 0.9094076752662659, 0.9108014106750488, 0.9073171019554138, 0.9066202044487, 0.9080139398574829, 0.8766550421714783, 0.893379807472229, 0.900348424911499, 0.896864116191864, 0.9010453224182129, 0.9142857193946838, 0.9024389982223511, 0.8996515870094299, 0.9066202044487, 0.903832733631134, 0.908710777759552, 0.8878048658370972, 0.8996515870094299, 0.9045296311378479, 0.895470380783081, 0.9080139398574829, 0.905226469039917, 0.8961672186851501, 0.9010453224182129, 0.8961672186851501, 0.8975609540939331]</t>
+  </si>
+  <si>
+    <t>[0.8876404762268066, 0.8973782658576965, 0.8823969960212708, 0.890636682510376, 0.8958801627159119, 0.877902626991272, 0.8786516785621643, 0.8876404762268066, 0.8951311111450195, 0.8719100952148438, 0.877902626991272, 0.8764045238494873, 0.8659176230430603, 0.9041198492050171, 0.8794007301330566, 0.8741573095321655, 0.8816479444503784, 0.9018726348876953, 0.8996254801750183, 0.8621723055839539, 0.8868913650512695, 0.8898876309394836, 0.8838951587677002, 0.8741573095321655, 0.8771535754203796, 0.8741573095321655, 0.8801498413085938, 0.8898876309394836, 0.8771535754203796]</t>
+  </si>
+  <si>
+    <t>[0.9198026061058044, 0.9290561676025391, 0.9228870868682861, 0.9265885353088379, 0.9235039949417114, 0.9259716272354126, 0.9173349738121033, 0.9222701787948608, 0.9204195141792297, 0.8994447588920593, 0.9105490446090698, 0.9296730160713196, 0.9296730160713196, 0.924737811088562, 0.9198026061058044, 0.9222701787948608, 0.921036422252655, 0.9093152284622192, 0.9228870868682861, 0.916718065738678, 0.9272054433822632, 0.9105490446090698, 0.9136335849761963, 0.9309068322181702, 0.9198026061058044, 0.9259716272354126, 0.9154842495918274, 0.9136335849761963, 0.9272054433822632, 0.9253547191619873, 0.9031462073326111, 0.9228870868682861, 0.9173349738121033, 0.9142504334449768, 0.9198026061058044, 0.9204195141792297, 0.9031462073326111, 0.9136335849761963, 0.9111659526824951]</t>
+  </si>
+  <si>
+    <t>[0.8984560370445251, 0.8717339634895325, 0.8782660365104675, 0.8705463409423828, 0.8865795731544495, 0.8889548778533936, 0.8551068902015686, 0.8693586587905884, 0.8735154271125793, 0.8818289637565613, 0.8420427441596985, 0.8675771951675415, 0.8562945127487183, 0.8604512810707092, 0.8699524998664856, 0.8574821949005127]</t>
+  </si>
+  <si>
+    <t>[0.8818835020065308, 0.8731045722961426, 0.8627294301986694, 0.8643256425857544, 0.8491619825363159, 0.8659217953681946, 0.8754988312721252, 0.8715083599090576, 0.8770949840545654, 0.8747007250785828, 0.8611332774162292, 0.8635275363922119, 0.8563447594642639, 0.8523543477058411, 0.8499600887298584, 0.8739026188850403]</t>
+  </si>
+  <si>
+    <t>[0.8778307437896729, 0.9052443504333496, 0.9076281189918518, 0.880214512348175, 0.8867699503898621, 0.8915375471115112, 0.8986889123916626, 0.8980929851531982, 0.8998808264732361, 0.8986889123916626, 0.8986889123916626, 0.8998808264732361, 0.889153778553009, 0.9129916429519653, 0.8933253884315491, 0.8951132297515869, 0.8849821090698242, 0.8849821090698242, 0.8986889123916626, 0.9010726809501648, 0.8969010710716248, 0.8980929851531982, 0.9022645950317383, 0.8945173025131226, 0.8885577917098999, 0.8974969983100891, 0.9016686677932739, 0.8861740231513977, 0.8903456330299377]</t>
+  </si>
+  <si>
+    <t>[0.9046177268028259, 0.9099167585372925, 0.8993186950683594, 0.8697956204414368, 0.8788796663284302, 0.85162752866745, 0.8758516311645508, 0.8834216594696045, 0.8894776701927185, 0.8872066736221313, 0.8917486667633057, 0.884178638458252, 0.8720666170120239, 0.8667675852775574, 0.8576835989952087, 0.8872066736221313, 0.8728235960006714]</t>
+  </si>
+  <si>
+    <t>[0.8907395005226135, 0.8980679512023926, 0.8954030871391296, 0.9060626029968262, 0.8947368264198303, 0.8947368264198303, 0.900066614151001, 0.9080612659454346, 0.9020652770996094, 0.8907395005226135, 0.9060626029968262, 0.9027315378189087, 0.8994004130363464, 0.9020652770996094, 0.8820785880088806, 0.8907395005226135, 0.9027315378189087, 0.8914057016372681, 0.8994004130363464, 0.9033977389335632, 0.9107261896133423, 0.8994004130363464, 0.9033977389335632, 0.897401750087738, 0.9020652770996094, 0.8940706253051758, 0.8814123868942261, 0.8940706253051758, 0.8927381634712219, 0.900066614151001, 0.9013990759849548, 0.9007328152656555, 0.9100599884986877, 0.9060626029968262, 0.9060626029968262, 0.8980679512023926]</t>
+  </si>
+  <si>
+    <t>[0.8874083757400513, 0.900066614151001, 0.9020652770996094, 0.8994004130363464, 0.90739506483078, 0.890073299407959, 0.8947368264198303, 0.9013990759849548, 0.9100599884986877, 0.9047302007675171, 0.8934044241905212, 0.9020652770996094, 0.8994004130363464, 0.9107261896133423, 0.9027315378189087, 0.9100599884986877, 0.9080612659454346, 0.897401750087738, 0.8994004130363464, 0.90739506483078, 0.9047302007675171, 0.8980679512023926, 0.8967354893684387, 0.8880746364593506, 0.8860759735107422, 0.8960692882537842, 0.8934044241905212, 0.8980679512023926, 0.9027315378189087]</t>
+  </si>
+  <si>
+    <t>[0.8861047625541687, 0.8716780543327332, 0.8572513461112976, 0.8648443222045898, 0.8625664114952087, 0.8633257150650024, 0.8686408400535583, 0.8473803997039795, 0.8557327389717102, 0.8481397032737732, 0.832953691482544, 0.858769953250885, 0.8473803997039795, 0.8610478639602661, 0.8557327389717102, 0.8633257150650024]</t>
+  </si>
+  <si>
+    <t>[0.9052547812461853, 0.9076433181762695, 0.9171974658966064, 0.9116241931915283, 0.9227706789970398, 0.9108280539512634, 0.9211783409118652, 0.9203821420669556, 0.9100318551063538, 0.9235668778419495, 0.9076433181762695, 0.9076433181762695, 0.9148089289665222, 0.9148089289665222, 0.9108280539512634, 0.9156050682067871, 0.9116241931915283, 0.9044585824012756, 0.912420392036438, 0.9084395170211792, 0.9020700454711914, 0.8980891704559326, 0.9084395170211792, 0.9132165312767029, 0.9052547812461853]</t>
+  </si>
+  <si>
+    <t>[0.9149969816207886, 0.9186399579048157, 0.9289617538452148, 0.936247706413269, 0.9265331029891968, 0.9283545613288879, 0.929568886756897, 0.9301760792732239, 0.9149969816207886, 0.9277474284172058, 0.9289617538452148, 0.9210686087608337, 0.9162113070487976, 0.9125683307647705, 0.9113540053367615, 0.9216758012771606, 0.9095324873924255, 0.9204614162445068, 0.9089252948760986]</t>
+  </si>
+  <si>
+    <t>[0.9026073813438416, 0.8964723944664001, 0.9010736346244812, 0.8995398879051208, 0.8949386477470398, 0.8911042809486389, 0.8857361674308777, 0.8918711543083191, 0.8964723944664001, 0.8773006200790405, 0.8880367875099182, 0.8888036608695984, 0.8788343667984009, 0.8711656332015991, 0.8826687335968018, 0.8964723944664001]</t>
+  </si>
+  <si>
+    <t>[0.8770104050636292, 0.8968779444694519, 0.8656575083732605, 0.8666036128997803, 0.8770104050636292, 0.8798485994338989, 0.8666036128997803, 0.8845790028572083, 0.8590350151062012, 0.8779565095901489, 0.8807947039604187, 0.8741722106933594, 0.860927164554596, 0.8722800612449646, 0.8599810600280762, 0.8675496578216553, 0.8524124622344971]</t>
+  </si>
+  <si>
+    <t>[0.8793236017227173, 0.8823981285095215, 0.8854727149009705, 0.8800922632217407, 0.8785549402236938, 0.8885472416877747, 0.8939277529716492, 0.8946964144706726, 0.884704053401947, 0.8946964144706726, 0.8885472416877747, 0.8954650163650513, 0.8893159031867981, 0.8800922632217407, 0.8677939772605896, 0.8870099782943726, 0.8677939772605896, 0.8885472416877747, 0.8831667900085449, 0.8839354515075684, 0.8777863383293152, 0.8785549402236938, 0.8823981285095215, 0.8885472416877747, 0.8870099782943726, 0.8831667900085449, 0.8800922632217407]</t>
+  </si>
+  <si>
+    <t>[0.9319470524787903, 0.9470699429512024, 0.9413988590240479, 0.938563346862793, 0.9442344307899475, 0.9413988590240479, 0.938563346862793, 0.9310019016265869, 0.9300566911697388, 0.938563346862793, 0.9196597337722778, 0.9338374137878418, 0.9281663298606873, 0.9413988590240479, 0.942344069480896, 0.8998109698295593, 0.9291115403175354]</t>
+  </si>
+  <si>
+    <t>[0.8982934951782227, 0.9010238647460938, 0.8914675712585449, 0.8894197940826416, 0.8935153484344482, 0.8825938701629639, 0.8839590549468994, 0.8928327560424805, 0.9017064571380615, 0.8873720169067383, 0.8921501636505127, 0.8723549246788025, 0.8812286853790283, 0.8634812235832214, 0.8812286853790283, 0.8709897398948669, 0.8866894245147705, 0.8784983158111572, 0.8860068321228027, 0.8928327560424805, 0.8982934951782227, 0.8907849788665771, 0.8832764625549316, 0.8819112777709961]</t>
+  </si>
+  <si>
+    <t>[0.8512345552444458, 0.8716049194335938, 0.8796296119689941, 0.8629629611968994, 0.8740741014480591, 0.8876543045043945, 0.8728395104408264, 0.8808642029762268, 0.8740741014480591, 0.8833333253860474, 0.8580247163772583, 0.885185182094574, 0.8697530627250671, 0.874691367149353, 0.8820987939834595, 0.86543208360672, 0.8709876537322998, 0.8697530627250671, 0.8629629611968994, 0.8716049194335938, 0.8611111044883728]</t>
+  </si>
+  <si>
+    <t>[0.9141291379928589, 0.9092569947242737, 0.9116930365562439, 0.915347158908844, 0.9141291379928589, 0.913520097732544, 0.9080389738082886, 0.9190012216567993, 0.9123020768165588, 0.9110840559005737, 0.9183921813964844, 0.9062119126319885, 0.9123020768165588, 0.9141291379928589, 0.9110840559005737, 0.8989037871360779, 0.9092569947242737, 0.8958587050437927, 0.8989037871360779, 0.9123020768165588, 0.9056029319763184, 0.9031668901443481, 0.9031668901443481]</t>
+  </si>
+  <si>
+    <t>[0.9094594717025757, 0.9263513684272766, 0.9317567348480225, 0.9324324131011963, 0.9324324131011963, 0.9310810565948486, 0.9304053783416748, 0.9148648381233215, 0.9304053783416748, 0.925000011920929, 0.9087837934494019, 0.9324324131011963, 0.9304053783416748, 0.9141891598701477, 0.9216216206550598, 0.9202702641487122, 0.8871621489524841, 0.9216216206550598, 0.9202702641487122]</t>
+  </si>
+  <si>
+    <t>[0.894991934299469, 0.9025309681892395, 0.9030694961547852, 0.8939149379730225, 0.901453971862793, 0.8847603797912598, 0.9025309681892395, 0.8933764100074768, 0.879913866519928, 0.8852988481521606, 0.8906838893890381, 0.9046849608421326, 0.8922994136810303, 0.8901454210281372, 0.8912224173545837, 0.888529896736145, 0.8826063275337219, 0.8933764100074768, 0.8939149379730225, 0.8901454210281372, 0.8826063275337219, 0.8852988481521606, 0.8858373761177063, 0.888529896736145, 0.894991934299469, 0.8782983422279358, 0.8858373761177063]</t>
+  </si>
+  <si>
+    <t>[0.9039931893348694, 0.9090909361839294, 0.9107901453971863, 0.9082412719726562, 0.8980458974838257, 0.9116397500038147, 0.8980458974838257, 0.8853015899658203, 0.9039931893348694, 0.9099405407905579, 0.91928631067276, 0.9133390188217163, 0.8980458974838257, 0.9022939801216125, 0.9073916673660278, 0.8887000679969788, 0.866610050201416, 0.8742566108703613, 0.9107901453971863, 0.9005947113037109, 0.889549732208252, 0.8742566108703613, 0.8937978148460388, 0.8785046935081482, 0.8971962332725525, 0.8878504633903503]</t>
+  </si>
+  <si>
+    <t>[0.8976588845252991, 0.9056856036186218, 0.909699022769928, 0.9070234298706055, 0.9070234298706055, 0.9130434989929199, 0.901003360748291, 0.9016722440719604, 0.9063544869422913, 0.9143812656402588, 0.9070234298706055, 0.9056856036186218, 0.9056856036186218, 0.8949832916259766, 0.8889632225036621, 0.9157190918922424, 0.8889632225036621, 0.8829431533813477, 0.9030100107192993, 0.884949803352356, 0.8949832916259766, 0.9063544869422913, 0.9103679060935974, 0.8842809200286865, 0.9036789536476135, 0.9076923131942749, 0.8755852580070496, 0.9016722440719604, 0.8889632225036621, 0.884949803352356, 0.9063544869422913]</t>
+  </si>
+  <si>
+    <t>[0.8863354325294495, 0.8875776529312134, 0.8925465941429138, 0.8857142925262451, 0.8962733149528503, 0.895652174949646, 0.8931676745414734, 0.8931676745414734, 0.8925465941429138, 0.886956512928009, 0.8832297921180725, 0.8919254541397095, 0.8919254541397095, 0.8925465941429138, 0.8888198733329773, 0.8857142925262451, 0.8919254541397095, 0.895652174949646, 0.8875776529312134, 0.888198733329773]</t>
+  </si>
+  <si>
+    <t>[0.9213583469390869, 0.919571042060852, 0.9213583469390869, 0.9142091274261475, 0.9168900847434998, 0.9070598483085632, 0.9249329566955566, 0.9231456518173218, 0.9186773896217346, 0.9088472127914429, 0.919571042060852, 0.9168900847434998, 0.9115281701087952, 0.9168900847434998, 0.9124218225479126, 0.9034852385520935, 0.9168900847434998, 0.9142091274261475, 0.8775692582130432, 0.9061661958694458, 0.8927614092826843, 0.9008042812347412]</t>
+  </si>
+  <si>
+    <t>[0.8731257319450378, 0.9054210186004639, 0.9158016443252563, 0.9123414158821106, 0.926182210445404, 0.9054210186004639, 0.9284890294075012, 0.9227220416069031, 0.9192618131637573, 0.9227220416069031, 0.9054210186004639, 0.9054210186004639, 0.9054210186004639, 0.9088811874389648, 0.9065743684768677, 0.9181084036827087, 0.8950403928756714, 0.9077277779579163, 0.9169549942016602, 0.9031141996383667, 0.9169549942016602, 0.9042676091194153]</t>
+  </si>
+  <si>
+    <t>[0.8589147329330444, 0.8906976580619812, 0.8891472816467285, 0.8899224996566772, 0.8899224996566772, 0.8914728760719299, 0.8844961524009705, 0.8930232524871826, 0.8813953399658203, 0.8945736289024353, 0.8891472816467285, 0.8868216872215271, 0.882945716381073, 0.8813953399658203, 0.8790697455406189, 0.8775193691253662, 0.882170557975769, 0.8883720636367798, 0.8767442107200623, 0.8813953399658203, 0.8759689927101135, 0.8751937747001648, 0.8844961524009705, 0.8806201815605164, 0.8728682398796082]</t>
+  </si>
+  <si>
+    <t>[0.9078105092048645, 0.9231753945350647, 0.9218950271606445, 0.9212548136711121, 0.9161331653594971, 0.9180538058280945, 0.9142125248908997, 0.903329074382782, 0.9161331653594971, 0.922535240650177, 0.9167733788490295, 0.893085777759552, 0.9148527383804321, 0.907170295715332, 0.908450722694397, 0.9046095013618469, 0.917413592338562]</t>
+  </si>
+  <si>
+    <t>[0.8984375, 0.9076704382896423, 0.9133522510528564, 0.9026988744735718, 0.90625, 0.9019886255264282, 0.9090909361839294, 0.9090909361839294, 0.9169034361839294, 0.9069602489471436, 0.9126420617103577, 0.9105113744735718, 0.9090909361839294, 0.921875, 0.9112215638160706, 0.8806818127632141, 0.9197443127632141, 0.9005681872367859, 0.9055397510528564, 0.9034090638160706, 0.8920454382896423, 0.9012784361839294, 0.8934659361839294, 0.8927556872367859, 0.9069602489471436, 0.8941761255264282, 0.8892045617103577, 0.9076704382896423, 0.9161931872367859]</t>
+  </si>
+  <si>
+    <t>[0.8785625696182251, 0.9002478122711182, 0.894671618938446, 0.8816604614257812, 0.8698884844779968, 0.8736059665679932, 0.875464677810669, 0.8500619530677795, 0.8420074582099915, 0.8562577366828918, 0.861833930015564, 0.8605948090553284, 0.8655514121055603, 0.8494423627853394, 0.856877326965332, 0.8543990254402161, 0.8736059665679932]</t>
+  </si>
+  <si>
+    <t>[0.9099307060241699, 0.9191685914993286, 0.9083910584449768, 0.9091609120368958, 0.9137798547744751, 0.9130100011825562, 0.9160892963409424, 0.9030023217201233, 0.9006928205490112, 0.9083910584449768, 0.911470353603363, 0.9268668293952942, 0.9153195023536682, 0.9068514108657837, 0.9060816168785095, 0.8906851410865784, 0.9045419692993164, 0.9014626741409302, 0.9083910584449768, 0.9083910584449768, 0.9006928205490112, 0.9091609120368958, 0.8999230265617371, 0.8929945826530457, 0.9068514108657837, 0.9168591499328613, 0.9091609120368958]</t>
+  </si>
+  <si>
+    <t>[0.899350643157959, 0.9212662577629089, 0.9253246784210205, 0.9228895902633667, 0.9245129823684692, 0.9261363744735718, 0.9342532753944397, 0.926948070526123, 0.9301947951316833, 0.923701286315918, 0.9301947951316833, 0.9099025726318359, 0.913149356842041, 0.9196428656578064, 0.9326298832893372, 0.9310064911842346, 0.9301947951316833, 0.9139610528945923, 0.9293830990791321, 0.9293830990791321, 0.9326298832893372, 0.9318181872367859]</t>
+  </si>
+  <si>
+    <t>[0.8966666460037231, 0.8986666798591614, 0.8953333497047424, 0.8986666798591614, 0.8999999761581421, 0.9020000100135803, 0.9006666541099548, 0.8933333158493042, 0.8999999761581421, 0.8986666798591614, 0.8893333077430725, 0.8953333497047424, 0.8793333172798157, 0.8893333077430725, 0.8833333253860474, 0.8840000033378601, 0.8866666555404663, 0.8880000114440918, 0.859333336353302, 0.8733333349227905, 0.8706666827201843]</t>
+  </si>
+  <si>
+    <t>[0.916209876537323, 0.9209083914756775, 0.9271730780601501, 0.925606906414032, 0.9193422198295593, 0.9154267907142639, 0.9193422198295593, 0.9060297608375549, 0.9209083914756775, 0.9060297608375549, 0.9240407347679138, 0.9287392497062683, 0.9232576489448547, 0.9185591340065002, 0.9115113615989685, 0.9169929623603821, 0.9021143317222595, 0.9107282757759094, 0.9075959324836731, 0.916209876537323, 0.906812846660614, 0.925606906414032, 0.9138606190681458, 0.9075959324836731, 0.9154267907142639, 0.9044635891914368, 0.9044635891914368]</t>
+  </si>
+  <si>
+    <t>[0.8899352550506592, 0.8928781747817993, 0.8934667706489563, 0.8834608793258667, 0.888169527053833, 0.8928781747817993, 0.8911124467849731, 0.8893466591835022, 0.8981754183769226, 0.8928781747817993, 0.8934667706489563, 0.8952324986457825, 0.8622719049453735, 0.8722777962684631, 0.887580931186676, 0.8828722834587097, 0.8846380114555359, 0.8675691485404968, 0.8787522315979004, 0.8775750398635864, 0.8946439027786255, 0.8911124467849731, 0.8840494155883789, 0.8781636357307434]</t>
+  </si>
+  <si>
+    <t>[0.9013079404830933, 0.8460166454315186, 0.8888228535652161, 0.898335337638855, 0.8923900127410889, 0.8769322037696838, 0.8816884756088257, 0.88287752866745, 0.9036861062049866, 0.8799048662185669, 0.8769322037696838, 0.903091549873352, 0.8739596009254456, 0.8977407813072205, 0.8929845690727234, 0.9042806029319763, 0.8900119066238403, 0.8906064033508301, 0.8709869384765625, 0.8929845690727234, 0.8769322037696838, 0.8900119066238403, 0.8947681188583374, 0.8721759915351868, 0.8882282972335815, 0.8900119066238403, 0.8620689511299133, 0.900118887424469, 0.8929845690727234, 0.8870392441749573, 0.8989298343658447]</t>
+  </si>
+  <si>
+    <t>[0.9285714030265808, 0.9365079402923584, 0.9379509091377258, 0.9372294545173645, 0.9350649118423462, 0.9350649118423462, 0.9357864260673523, 0.9422799348831177, 0.9350649118423462, 0.9408369660377502, 0.939393937587738, 0.9386724233627319, 0.9451659321784973, 0.9365079402923584, 0.9451659321784973, 0.9336219429969788, 0.9430014491081238, 0.9408369660377502, 0.9444444179534912, 0.9401154518127441, 0.9430014491081238, 0.9422799348831177, 0.9430014491081238, 0.9408369660377502, 0.9069263935089111, 0.9350649118423462, 0.9278499484062195, 0.9408369660377502]</t>
+  </si>
+  <si>
+    <t>[0.8667905926704407, 0.861833930015564, 0.8698884844779968, 0.870508074760437, 0.8643122911453247, 0.8612143993377686, 0.8736059665679932, 0.8599752187728882, 0.8717471957206726, 0.8853779435157776, 0.8798017501831055, 0.8828996419906616, 0.886617124080658, 0.8767038583755493, 0.8791821599006653, 0.8742254972457886, 0.8748450875282288, 0.8723667860031128, 0.8624535202980042, 0.8667905926704407, 0.8736059665679932, 0.8680297136306763, 0.8302354216575623, 0.8791821599006653, 0.8667905926704407, 0.8760842680931091, 0.8599752187728882, 0.8711276054382324]</t>
+  </si>
+  <si>
+    <t>[0.8926721215248108, 0.8867505788803101, 0.8830496072769165, 0.9000740051269531, 0.8882309198379517, 0.8808290362358093, 0.8823093771934509, 0.8874907493591309, 0.8860103487968445, 0.8660251498222351, 0.8786084651947021, 0.8697261214256287, 0.8726869225502014, 0.8823093771934509, 0.874167263507843, 0.8704662919044495, 0.8749074935913086, 0.8800888061523438, 0.8778682351112366]</t>
+  </si>
+  <si>
+    <t>[0.851905107498169, 0.8317757248878479, 0.8598130941390991, 0.8554996252059937, 0.8468727469444275, 0.8439971208572388, 0.8353702425956726, 0.851905107498169, 0.8375269770622253, 0.8447160124778748, 0.8468727469444275, 0.8475916385650635, 0.8159597516059875, 0.8353702425956726, 0.8447160124778748, 0.8540618419647217, 0.851186215877533, 0.8382458686828613]</t>
+  </si>
+  <si>
+    <t>[0.8704141974449158, 0.8999999761581421, 0.9005917310714722, 0.9142012000083923, 0.9071006178855896, 0.9023668766021729, 0.9065088629722595, 0.8999999761581421, 0.8810650706291199, 0.9100591540336609, 0.9047337174415588, 0.9076923131942749, 0.9041420221328735, 0.9082840085029602, 0.9029585719108582, 0.8952662944793701, 0.8994082808494568, 0.9029585719108582, 0.9023668766021729]</t>
+  </si>
+  <si>
+    <t>[0.891769289970398, 0.8865845799446106, 0.9060271978378296, 0.8943616151809692, 0.8891769051551819, 0.8930654525756836, 0.885288417339325, 0.8865845799446106, 0.8969539999961853, 0.891769289970398, 0.8950096964836121, 0.8969539999961853, 0.891769289970398, 0.8872326612472534, 0.8801037073135376, 0.8904731273651123, 0.885288417339325, 0.8898249864578247]</t>
+  </si>
+  <si>
+    <t>[0.882956862449646, 0.8788501024246216, 0.8911704421043396, 0.8918548822402954, 0.8884325623512268, 0.8918548822402954, 0.8884325623512268, 0.8898015022277832, 0.8918548822402954, 0.892539381980896, 0.8966461420059204, 0.8939082622528076, 0.8788501024246216, 0.8891170620918274, 0.8898015022277832, 0.8809034824371338, 0.8747433423995972, 0.8781656622886658, 0.8918548822402954, 0.8843258023262024, 0.8795345425605774, 0.8850102424621582, 0.8815879821777344, 0.8795345425605774, 0.8856947422027588, 0.8863791823387146]</t>
+  </si>
+  <si>
+    <t>[0.9170095920562744, 0.9094650149345398, 0.9142661094665527, 0.882030189037323, 0.8916323781013489, 0.8573388457298279, 0.908093273639679, 0.8971193432807922, 0.8909465074539185, 0.895061731338501, 0.9135802388191223, 0.8813443183898926, 0.8696845173835754, 0.8395061492919922, 0.8895747661590576, 0.8614540696144104]</t>
+  </si>
+  <si>
+    <t>[0.8875420689582825, 0.8861953020095825, 0.8814814686775208, 0.8767676949501038, 0.8592592477798462, 0.8700336813926697, 0.8632996678352356, 0.8821548819541931, 0.8734006881713867, 0.8579124808311462, 0.867340087890625, 0.8781144618988037, 0.875420868396759, 0.8558922410011292, 0.8565656542778015, 0.872053861618042]</t>
+  </si>
+  <si>
+    <t>[0.9277474284172058, 0.9052823185920715, 0.8755312561988831, 0.8931390643119812, 0.8986034989356995, 0.8998178243637085, 0.8737097978591919, 0.9089252948760986, 0.8943533897399902, 0.8888888955116272, 0.8949605226516724, 0.9064966440200806, 0.9071038365364075, 0.8870673775672913, 0.8864602446556091, 0.9077109694480896]</t>
+  </si>
+  <si>
+    <t>[0.8819031715393066, 0.8912489414215088, 0.8946474194526672, 0.8963466286659241, 0.8988955020904541, 0.8929481506347656, 0.8937978148460388, 0.8903993368148804, 0.8937978148460388, 0.8980458974838257, 0.8988955020904541, 0.8937978148460388, 0.8920985460281372, 0.8937978148460388, 0.8861512541770935, 0.8929481506347656, 0.8887000679969788, 0.889549732208252, 0.8980458974838257, 0.8912489414215088]</t>
+  </si>
+  <si>
+    <t>[[482   1  19]
+ [ 11  66  11]
+ [ 52   3 117]]</t>
+  </si>
+  <si>
+    <t>[[689  14  19]
+ [ 11 100   7]
+ [ 35   1 165]]</t>
+  </si>
+  <si>
+    <t>[[227   0   7]
+ [  2  25   0]
+ [ 29   9 174]]</t>
+  </si>
+  <si>
+    <t>[[330   0  14]
+ [ 14  97   2]
+ [ 24   0 151]]</t>
+  </si>
+  <si>
+    <t>[[474  28  25]
+ [ 16  84   3]
+ [ 21  14 135]]</t>
+  </si>
+  <si>
+    <t>[[429   2  17]
+ [ 22 139   3]
+ [ 22   0 160]]</t>
+  </si>
+  <si>
+    <t>[[265   4  14]
+ [  2  59   1]
+ [ 11  17 149]]</t>
+  </si>
+  <si>
+    <t>[[602   7  16]
+ [ 24 123   4]
+ [ 23   0 122]]</t>
+  </si>
+  <si>
+    <t>[[382  14  16]
+ [  6  77   6]
+ [ 32   5 206]]</t>
+  </si>
+  <si>
+    <t>[[736   2  25]
+ [ 26 127   3]
+ [ 41   2 160]]</t>
+  </si>
+  <si>
+    <t>[[331   3  16]
+ [  2  38   4]
+ [ 15   0 170]]</t>
+  </si>
+  <si>
+    <t>[[307   0  37]
+ [ 13  80  18]
+ [ 16   0 143]]</t>
+  </si>
+  <si>
+    <t>[[511  14  39]
+ [ 10  79   4]
+ [ 40  16 179]]</t>
+  </si>
+  <si>
+    <t>[[699   4  17]
+ [ 15 109   6]
+ [ 50   0 152]]</t>
+  </si>
+  <si>
+    <t>[[396   4  37]
+ [ 16 117   3]
+ [  8   0  91]]</t>
+  </si>
+  <si>
+    <t>[[457   0  16]
+ [ 31 136   3]
+ [ 42  12 223]]</t>
+  </si>
+  <si>
+    <t>[[173   1   4]
+ [  0   7   0]
+ [  9   0 112]]</t>
+  </si>
+  <si>
+    <t>[[384  14   7]
+ [  5  67   5]
+ [ 13   0 165]]</t>
+  </si>
+  <si>
+    <t>[[302   0   9]
+ [ 11  89   4]
+ [ 15   1 192]]</t>
+  </si>
+  <si>
+    <t>[[484  30  14]
+ [  7  78   0]
+ [ 36  57 134]]</t>
+  </si>
+  <si>
+    <t>[[414   9  10]
+ [  6  64  11]
+ [ 10   0  91]]</t>
+  </si>
+  <si>
+    <t>[[522   1  22]
+ [ 27  82   5]
+ [ 27   0 146]]</t>
+  </si>
+  <si>
+    <t>[[460   3  12]
+ [ 13 113   6]
+ [ 38   8 175]]</t>
+  </si>
+  <si>
+    <t>[[448   1  36]
+ [ 12  77   8]
+ [ 22   0 160]]</t>
+  </si>
+  <si>
+    <t>[[522   4  14]
+ [  8  90   9]
+ [ 24   1 112]]</t>
+  </si>
+  <si>
+    <t>[[345   4  15]
+ [  8  99   6]
+ [ 17   0 111]]</t>
+  </si>
+  <si>
+    <t>[[474   8  15]
+ [ 13  92  42]
+ [ 26   1 164]]</t>
+  </si>
+  <si>
+    <t>[[325  24   7]
+ [  4  37   2]
+ [ 61  37 191]]</t>
+  </si>
+  <si>
+    <t>[[528   1   6]
+ [ 22  69   3]
+ [ 25   0 149]]</t>
+  </si>
+  <si>
+    <t>[[459   3  23]
+ [  8  96   5]
+ [ 19   0 174]]</t>
+  </si>
+  <si>
+    <t>[[600   5  17]
+ [ 21 101   6]
+ [ 53   5 203]]</t>
+  </si>
+  <si>
+    <t>[[484  17   9]
+ [  7  66   7]
+ [ 23   1 129]]</t>
+  </si>
+  <si>
+    <t>[[266  12   9]
+ [  4  15   0]
+ [ 42  14 149]]</t>
+  </si>
+  <si>
+    <t>[[393   9  31]
+ [ 12  73   7]
+ [ 29   0 140]]</t>
+  </si>
+  <si>
+    <t>[[501   6  11]
+ [ 29 154   7]
+ [ 20   0 144]]</t>
+  </si>
+  <si>
+    <t>[[381   4  22]
+ [  6  94   4]
+ [ 14   1 145]]</t>
+  </si>
+  <si>
+    <t>[[539   4  19]
+ [ 17 108   6]
+ [ 18   4 146]]</t>
+  </si>
+  <si>
+    <t>[[611   3  40]
+ [ 27 189   9]
+ [ 41   0 177]]</t>
+  </si>
+  <si>
+    <t>[[363   3  23]
+ [  2  47   8]
+ [ 12   0 123]]</t>
+  </si>
+  <si>
+    <t>[[556   0  31]
+ [ 25  67   7]
+ [ 28   0 159]]</t>
+  </si>
+  <si>
+    <t>[[216   0  13]
+ [  2  51   5]
+ [ 10   0 105]]</t>
+  </si>
+  <si>
+    <t>[[318  20  18]
+ [  1  38   4]
+ [ 29  38 222]]</t>
+  </si>
+  <si>
+    <t>[[417   2  30]
+ [ 11  99   6]
+ [ 21   0 129]]</t>
+  </si>
+  <si>
+    <t>[[243   7  30]
+ [  3  76   3]
+ [  9   0 100]]</t>
+  </si>
+  <si>
+    <t>[[577   1  18]
+ [ 28  90   6]
+ [ 32   0 169]]</t>
+  </si>
+  <si>
+    <t>[[298   0   6]
+ [ 13  93   4]
+ [ 76   6 177]]</t>
+  </si>
+  <si>
+    <t>[[620  18  16]
+ [ 20 102   3]
+ [ 38   9 174]]</t>
+  </si>
+  <si>
+    <t>[[466  16  12]
+ [  9  38   9]
+ [ 20   1 151]]</t>
+  </si>
+  <si>
+    <t>[[331   3  15]
+ [  6 110  14]
+ [ 18   0 128]]</t>
+  </si>
+  <si>
+    <t>[[337   1  23]
+ [ 23  77   2]
+ [ 29  13 174]]</t>
+  </si>
+  <si>
+    <t>[[534   3  27]
+ [ 33 145   9]
+ [ 20   0 122]]</t>
+  </si>
+  <si>
+    <t>[[381   1  15]
+ [  7  77   0]
+ [ 10   1 150]]</t>
+  </si>
+  <si>
+    <t>[[529   6  11]
+ [  6  49   6]
+ [ 24   1 160]]</t>
+  </si>
+  <si>
+    <t>[[510  32  18]
+ [  8  37   4]
+ [ 40  17 205]]</t>
+  </si>
+  <si>
+    <t>[[666   7  13]
+ [ 10 123   4]
+ [ 27   1 141]]</t>
+  </si>
+  <si>
+    <t>[[377   1  15]
+ [ 19 135  11]
+ [ 31   0 149]]</t>
+  </si>
+  <si>
+    <t>[[576   3  17]
+ [ 20 101   3]
+ [ 42   0 159]]</t>
+  </si>
+  <si>
+    <t>[[391   3  12]
+ [ 18 100   6]
+ [  7   0 112]]</t>
+  </si>
+  <si>
+    <t>[[327   5  18]
+ [  2  33   7]
+ [ 18   0 151]]</t>
+  </si>
+  <si>
+    <t>[[310  12  24]
+ [  1  20   0]
+ [ 44  26 204]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.12 0.75 0.12]
+ [0.3  0.02 0.68]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.09 0.85 0.06]
+ [0.17 0.   0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.07 0.93 0.  ]
+ [0.14 0.04 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.12 0.86 0.02]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.05 0.05]
+ [0.16 0.82 0.03]
+ [0.12 0.08 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.13 0.85 0.02]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.01 0.05]
+ [0.03 0.95 0.02]
+ [0.06 0.1  0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.16 0.81 0.03]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.03 0.04]
+ [0.07 0.87 0.07]
+ [0.13 0.02 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.03]
+ [0.17 0.81 0.02]
+ [0.2  0.01 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.05]
+ [0.05 0.86 0.09]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.   0.11]
+ [0.12 0.72 0.16]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.02 0.07]
+ [0.11 0.85 0.04]
+ [0.17 0.07 0.76]]</t>
   </si>
   <si>
     <t>[[0.97 0.01 0.02]
- [0.1  0.9  0.  ]
- [0.12 0.01 0.86]]</t>
-  </si>
-  <si>
-    <t>[[0.96 0.01 0.04]
- [0.18 0.76 0.06]
- [0.2  0.   0.8 ]]</t>
-  </si>
-  <si>
-    <t>[[0.95 0.   0.04]
- [0.21 0.76 0.03]
+ [0.12 0.84 0.05]
+ [0.25 0.   0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.01 0.08]
+ [0.12 0.86 0.02]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.18 0.8  0.02]
+ [0.15 0.04 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.   1.   0.  ]
+ [0.07 0.   0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.06 0.87 0.06]
+ [0.07 0.   0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.11 0.86 0.04]
+ [0.07 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.06 0.03]
+ [0.08 0.92 0.  ]
+ [0.16 0.25 0.59]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.07 0.79 0.14]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.24 0.72 0.04]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.03]
+ [0.1  0.86 0.05]
+ [0.17 0.04 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.   0.07]
+ [0.12 0.79 0.08]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.03]
+ [0.07 0.84 0.08]
+ [0.18 0.01 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.07 0.88 0.05]
+ [0.13 0.   0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.09 0.63 0.29]
+ [0.14 0.01 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.07 0.02]
+ [0.09 0.86 0.05]
+ [0.21 0.13 0.66]]</t>
+  </si>
+  <si>
+    <t>[[0.99 0.   0.01]
+ [0.23 0.73 0.03]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.05]
+ [0.07 0.88 0.05]
+ [0.1  0.   0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.16 0.79 0.05]
+ [0.2  0.02 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.09 0.82 0.09]
  [0.15 0.01 0.84]]</t>
   </si>
   <si>
+    <t>[[0.93 0.04 0.03]
+ [0.21 0.79 0.  ]
+ [0.2  0.07 0.73]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.02 0.07]
+ [0.13 0.79 0.08]
+ [0.17 0.   0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.15 0.81 0.04]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.01 0.05]
+ [0.06 0.9  0.04]
+ [0.09 0.01 0.91]]</t>
+  </si>
+  <si>
     <t>[[0.96 0.01 0.03]
- [0.16 0.74 0.1 ]
+ [0.13 0.82 0.05]
+ [0.11 0.02 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.06]
+ [0.12 0.84 0.04]
+ [0.19 0.   0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.06]
+ [0.04 0.82 0.14]
+ [0.09 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.25 0.68 0.07]
  [0.15 0.   0.85]]</t>
   </si>
   <si>
-    <t>[[0.9  0.06 0.04]
- [0.02 0.93 0.05]
- [0.11 0.17 0.72]]</t>
-  </si>
-  <si>
-    <t>[[0.89 0.   0.11]
- [0.   0.85 0.15]
+    <t>[[0.94 0.   0.06]
+ [0.03 0.88 0.09]
+ [0.09 0.   0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.06 0.05]
+ [0.02 0.88 0.09]
+ [0.1  0.13 0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.07]
+ [0.09 0.85 0.05]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.02 0.11]
+ [0.04 0.93 0.04]
+ [0.08 0.   0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.23 0.73 0.05]
+ [0.16 0.   0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.12 0.85 0.04]
+ [0.29 0.02 0.68]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.16 0.82 0.02]
+ [0.17 0.04 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.03 0.02]
+ [0.16 0.68 0.16]
+ [0.12 0.01 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.05 0.85 0.11]
+ [0.12 0.   0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.   0.06]
+ [0.23 0.75 0.02]
+ [0.13 0.06 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.05]
+ [0.18 0.78 0.05]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.08 0.92 0.  ]
+ [0.06 0.01 0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.1  0.8  0.1 ]
+ [0.13 0.01 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.06 0.03]
+ [0.16 0.76 0.08]
+ [0.15 0.06 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.07 0.9  0.03]
+ [0.16 0.01 0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.   0.04]
+ [0.12 0.82 0.07]
+ [0.17 0.   0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.03]
+ [0.16 0.81 0.02]
+ [0.21 0.   0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.15 0.81 0.05]
  [0.06 0.   0.94]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.05]
+ [0.05 0.79 0.17]
+ [0.11 0.   0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.03 0.07]
+ [0.05 0.95 0.  ]
+ [0.16 0.09 0.74]]</t>
   </si>
 </sst>
 </file>
@@ -554,7 +1898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,37 +1944,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="G2">
-        <v>0.917004048582996</v>
+        <v>0.8727034120734908</v>
       </c>
       <c r="H2">
-        <v>0.9136816968675375</v>
+        <v>0.7967973068964452</v>
       </c>
       <c r="I2">
-        <v>0.9122121002452895</v>
+        <v>0.8743930599762842</v>
       </c>
       <c r="J2">
-        <v>0.9107555993108539</v>
+        <v>0.8299037470668332</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -638,37 +1982,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="G3">
-        <v>0.9010669253152279</v>
+        <v>0.9164265129682997</v>
       </c>
       <c r="H3">
-        <v>0.8378571428571427</v>
+        <v>0.874215592771856</v>
       </c>
       <c r="I3">
-        <v>0.8991495668034656</v>
+        <v>0.8902848429758125</v>
       </c>
       <c r="J3">
-        <v>0.8646356339760549</v>
+        <v>0.8819949437824328</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -676,37 +2020,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="G4">
-        <v>0.8987463837994214</v>
+        <v>0.9006342494714588</v>
       </c>
       <c r="H4">
-        <v>0.8525726547432178</v>
+        <v>0.9055887043308427</v>
       </c>
       <c r="I4">
-        <v>0.8942896204548747</v>
+        <v>0.8588216819127327</v>
       </c>
       <c r="J4">
-        <v>0.8688330203792067</v>
+        <v>0.8759775139986415</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>311</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -714,37 +2058,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="G5">
-        <v>0.8921832884097035</v>
+        <v>0.9145569620253164</v>
       </c>
       <c r="H5">
-        <v>0.8499247595478322</v>
+        <v>0.8935221826948521</v>
       </c>
       <c r="I5">
-        <v>0.907354030409749</v>
+        <v>0.9336435824004167</v>
       </c>
       <c r="J5">
-        <v>0.8729724668269981</v>
+        <v>0.9112722505389567</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -752,37 +2096,37 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="G6">
-        <v>0.8517964071856288</v>
+        <v>0.86625</v>
       </c>
       <c r="H6">
-        <v>0.851050901004644</v>
+        <v>0.8363607892264328</v>
       </c>
       <c r="I6">
-        <v>0.7680046177239421</v>
+        <v>0.8074934935175291</v>
       </c>
       <c r="J6">
-        <v>0.7817909556229519</v>
+        <v>0.8192433542157146</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="L6" t="s">
-        <v>51</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -790,37 +2134,2089 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G7">
+        <v>0.9168765743073047</v>
+      </c>
+      <c r="H7">
+        <v>0.8947570468149736</v>
+      </c>
+      <c r="I7">
+        <v>0.9272270786372716</v>
+      </c>
+      <c r="J7">
+        <v>0.9090164671979211</v>
+      </c>
+      <c r="K7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8">
+        <v>0.9061302681992337</v>
+      </c>
+      <c r="H8">
+        <v>0.9099388575158803</v>
+      </c>
+      <c r="I8">
+        <v>0.8664246651459321</v>
+      </c>
+      <c r="J8">
+        <v>0.883209247241639</v>
+      </c>
+      <c r="K8" t="s">
+        <v>315</v>
+      </c>
+      <c r="L8" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9">
+        <v>0.9196525515743756</v>
+      </c>
+      <c r="H9">
+        <v>0.8730496155895562</v>
+      </c>
+      <c r="I9">
+        <v>0.9109632231379665</v>
+      </c>
+      <c r="J9">
+        <v>0.8902246669801569</v>
+      </c>
+      <c r="K9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10">
+        <v>0.8938172043010753</v>
+      </c>
+      <c r="H10">
+        <v>0.8800298769532211</v>
+      </c>
+      <c r="I10">
+        <v>0.8717053049289891</v>
+      </c>
+      <c r="J10">
+        <v>0.875145423473449</v>
+      </c>
+      <c r="K10" t="s">
+        <v>317</v>
+      </c>
+      <c r="L10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="H11">
+        <v>0.8556310907623783</v>
+      </c>
+      <c r="I11">
+        <v>0.9123641226026082</v>
+      </c>
+      <c r="J11">
+        <v>0.881135400356421</v>
+      </c>
+      <c r="K11" t="s">
+        <v>318</v>
+      </c>
+      <c r="L11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G12">
+        <v>0.9309153713298791</v>
+      </c>
+      <c r="H12">
+        <v>0.9094231894231894</v>
+      </c>
+      <c r="I12">
+        <v>0.9242385118951009</v>
+      </c>
+      <c r="J12">
+        <v>0.9164027941644662</v>
+      </c>
+      <c r="K12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13">
+        <v>0.8631921824104235</v>
+      </c>
+      <c r="H13">
+        <v>0.8375112167894091</v>
+      </c>
+      <c r="I13">
+        <v>0.8786375661375662</v>
+      </c>
+      <c r="J13">
+        <v>0.8472526532427979</v>
+      </c>
+      <c r="K13" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14">
+        <v>0.8621076233183856</v>
+      </c>
+      <c r="H14">
+        <v>0.839064287348433</v>
+      </c>
+      <c r="I14">
+        <v>0.8139834629311155</v>
+      </c>
+      <c r="J14">
+        <v>0.8246641551098947</v>
+      </c>
+      <c r="K14" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15">
+        <v>0.9125475285171103</v>
+      </c>
+      <c r="H15">
+        <v>0.8539233731065415</v>
+      </c>
+      <c r="I15">
+        <v>0.9160315548171732</v>
+      </c>
+      <c r="J15">
+        <v>0.8818446356097865</v>
+      </c>
+      <c r="K15" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16">
+        <v>0.8988095238095238</v>
+      </c>
+      <c r="H16">
+        <v>0.8952215088471651</v>
+      </c>
+      <c r="I16">
+        <v>0.8681519267223639</v>
+      </c>
+      <c r="J16">
+        <v>0.8753214033576358</v>
+      </c>
+      <c r="K16" t="s">
+        <v>323</v>
+      </c>
+      <c r="L16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17">
+        <v>0.8869565217391304</v>
+      </c>
+      <c r="H17">
+        <v>0.8570758377155824</v>
+      </c>
+      <c r="I17">
+        <v>0.9008902243893667</v>
+      </c>
+      <c r="J17">
+        <v>0.8753190024574909</v>
+      </c>
+      <c r="K17" t="s">
+        <v>324</v>
+      </c>
+      <c r="L17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18">
+        <v>0.9542483660130719</v>
+      </c>
+      <c r="H18">
+        <v>0.9658433156900982</v>
+      </c>
+      <c r="I18">
+        <v>0.9303555639762536</v>
+      </c>
+      <c r="J18">
+        <v>0.946530707923113</v>
+      </c>
+      <c r="K18" t="s">
+        <v>325</v>
+      </c>
+      <c r="L18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.9150814368042832</v>
+      </c>
+      <c r="I19">
+        <v>0.9048625880848946</v>
+      </c>
+      <c r="J19">
+        <v>0.9097838643550163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20">
+        <v>0.9357945425361156</v>
+      </c>
+      <c r="H20">
+        <v>0.9166357490312474</v>
+      </c>
+      <c r="I20">
+        <v>0.9487353206865402</v>
+      </c>
+      <c r="J20">
+        <v>0.9308449241927449</v>
+      </c>
+      <c r="K20" t="s">
+        <v>327</v>
+      </c>
+      <c r="L20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" t="s">
+        <v>268</v>
+      </c>
+      <c r="G21">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="H21">
+        <v>0.8082073651780829</v>
+      </c>
+      <c r="I21">
+        <v>0.7655129167463133</v>
+      </c>
+      <c r="J21">
+        <v>0.7520674038967878</v>
+      </c>
+      <c r="K21" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22">
+        <v>0.9252032520325203</v>
+      </c>
+      <c r="H22">
+        <v>0.8824112160595924</v>
+      </c>
+      <c r="I22">
+        <v>0.8840010088138474</v>
+      </c>
+      <c r="J22">
+        <v>0.8816909085869314</v>
+      </c>
+      <c r="K22" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G23">
+        <v>0.9014423076923077</v>
+      </c>
+      <c r="H23">
+        <v>0.8403423488632668</v>
+      </c>
+      <c r="I23">
+        <v>0.9127108143556887</v>
+      </c>
+      <c r="J23">
+        <v>0.869243091551068</v>
+      </c>
+      <c r="K23" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24">
+        <v>0.9033816425120773</v>
+      </c>
+      <c r="H24">
+        <v>0.8721122874373649</v>
+      </c>
+      <c r="I24">
+        <v>0.906073922864075</v>
+      </c>
+      <c r="J24">
+        <v>0.8870953361146224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>331</v>
+      </c>
+      <c r="L24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G25">
+        <v>0.8965968586387435</v>
+      </c>
+      <c r="H25">
+        <v>0.8655488841055852</v>
+      </c>
+      <c r="I25">
+        <v>0.9003179311941821</v>
+      </c>
+      <c r="J25">
+        <v>0.8785308621468745</v>
+      </c>
+      <c r="K25" t="s">
+        <v>332</v>
+      </c>
+      <c r="L25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26">
+        <v>0.923469387755102</v>
+      </c>
+      <c r="H26">
+        <v>0.875102136722984</v>
+      </c>
+      <c r="I26">
+        <v>0.9064121059434251</v>
+      </c>
+      <c r="J26">
+        <v>0.8896382271843702</v>
+      </c>
+      <c r="K26" t="s">
+        <v>333</v>
+      </c>
+      <c r="L26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27">
+        <v>0.9173553719008265</v>
+      </c>
+      <c r="H27">
+        <v>0.8970319641641544</v>
+      </c>
+      <c r="I27">
+        <v>0.9115021906284042</v>
+      </c>
+      <c r="J27">
+        <v>0.9035224388085424</v>
+      </c>
+      <c r="K27" t="s">
+        <v>334</v>
+      </c>
+      <c r="L27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+      <c r="G28">
+        <v>0.874251497005988</v>
+      </c>
+      <c r="H28">
+        <v>0.8127371391985253</v>
+      </c>
+      <c r="I28">
+        <v>0.8589830484199488</v>
+      </c>
+      <c r="J28">
+        <v>0.8255552833704917</v>
+      </c>
+      <c r="K28" t="s">
+        <v>335</v>
+      </c>
+      <c r="L28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+      <c r="G29">
+        <v>0.8037790697674418</v>
+      </c>
+      <c r="H29">
+        <v>0.8114287061909717</v>
+      </c>
+      <c r="I29">
+        <v>0.7219614512471656</v>
+      </c>
+      <c r="J29">
+        <v>0.7257741540090809</v>
+      </c>
+      <c r="K29" t="s">
+        <v>336</v>
+      </c>
+      <c r="L29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G30">
+        <v>0.9290161892901619</v>
+      </c>
+      <c r="H30">
+        <v>0.8590934267074721</v>
+      </c>
+      <c r="I30">
+        <v>0.9490043766543491</v>
+      </c>
+      <c r="J30">
+        <v>0.8968017091437602</v>
+      </c>
+      <c r="K30" t="s">
+        <v>337</v>
+      </c>
+      <c r="L30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7">
-        <v>0.9066265060240963</v>
-      </c>
-      <c r="H7">
-        <v>0.8951368034701369</v>
-      </c>
-      <c r="I7">
-        <v>0.9280399479431901</v>
-      </c>
-      <c r="J7">
-        <v>0.9079157266019248</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31">
+        <v>0.9263024142312579</v>
+      </c>
+      <c r="H31">
+        <v>0.9095600338921752</v>
+      </c>
+      <c r="I31">
+        <v>0.9251758509184252</v>
+      </c>
+      <c r="J31">
+        <v>0.9165022256941066</v>
+      </c>
+      <c r="K31" t="s">
+        <v>338</v>
+      </c>
+      <c r="L31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32">
+        <v>0.8941641938674579</v>
+      </c>
+      <c r="H32">
+        <v>0.8438235009527212</v>
+      </c>
+      <c r="I32">
+        <v>0.8994492378463388</v>
+      </c>
+      <c r="J32">
+        <v>0.8682632583754931</v>
+      </c>
+      <c r="K32" t="s">
+        <v>339</v>
+      </c>
+      <c r="L32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33">
+        <v>0.9138627187079408</v>
+      </c>
+      <c r="H33">
+        <v>0.8723856209150327</v>
+      </c>
+      <c r="I33">
+        <v>0.8723345664577383</v>
+      </c>
+      <c r="J33">
+        <v>0.8719874536203416</v>
+      </c>
+      <c r="K33" t="s">
+        <v>340</v>
+      </c>
+      <c r="L33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34">
+        <v>0.8414872798434442</v>
+      </c>
+      <c r="H34">
+        <v>0.814377406931964</v>
+      </c>
+      <c r="I34">
+        <v>0.7204852452614108</v>
+      </c>
+      <c r="J34">
+        <v>0.7363611835458853</v>
+      </c>
+      <c r="K34" t="s">
+        <v>341</v>
+      </c>
+      <c r="L34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35">
+        <v>0.8731988472622478</v>
+      </c>
+      <c r="H35">
+        <v>0.8431672916155448</v>
+      </c>
+      <c r="I35">
+        <v>0.8607635700962198</v>
+      </c>
+      <c r="J35">
+        <v>0.8508570935822504</v>
+      </c>
+      <c r="K35" t="s">
+        <v>342</v>
+      </c>
+      <c r="L35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36">
+        <v>0.9162844036697247</v>
+      </c>
+      <c r="H36">
+        <v>0.8852521878195819</v>
+      </c>
+      <c r="I36">
+        <v>0.9207659932659933</v>
+      </c>
+      <c r="J36">
+        <v>0.9005459433376991</v>
+      </c>
+      <c r="K36" t="s">
+        <v>343</v>
+      </c>
+      <c r="L36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L7" t="s">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37">
+        <v>0.9239940387481371</v>
+      </c>
+      <c r="H37">
+        <v>0.9154046966546967</v>
+      </c>
+      <c r="I37">
+        <v>0.9158576180495067</v>
+      </c>
+      <c r="J37">
+        <v>0.9151035372761749</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38">
+        <v>0.9210220673635308</v>
+      </c>
+      <c r="H38">
+        <v>0.8841832776865783</v>
+      </c>
+      <c r="I38">
+        <v>0.9079533475310554</v>
+      </c>
+      <c r="J38">
+        <v>0.8949315070835765</v>
+      </c>
+      <c r="K38" t="s">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39">
+        <v>0.8906107566089334</v>
+      </c>
+      <c r="H39">
+        <v>0.862059123343527</v>
+      </c>
+      <c r="I39">
+        <v>0.8891378551009858</v>
+      </c>
+      <c r="J39">
+        <v>0.8735004332455855</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40">
+        <v>0.9173838209982789</v>
+      </c>
+      <c r="H40">
+        <v>0.8896114894491297</v>
+      </c>
+      <c r="I40">
+        <v>0.9005220067289033</v>
+      </c>
+      <c r="J40">
+        <v>0.8924988081375771</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41">
+        <v>0.8957617411225659</v>
+      </c>
+      <c r="H41">
+        <v>0.824741384516913</v>
+      </c>
+      <c r="I41">
+        <v>0.9066928947902166</v>
+      </c>
+      <c r="J41">
+        <v>0.8550399339834254</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42">
+        <v>0.9253731343283582</v>
+      </c>
+      <c r="H42">
+        <v>0.9118617547121636</v>
+      </c>
+      <c r="I42">
+        <v>0.933675652545999</v>
+      </c>
+      <c r="J42">
+        <v>0.9211427208347455</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43">
+        <v>0.8401162790697675</v>
+      </c>
+      <c r="H43">
+        <v>0.8483818157214161</v>
+      </c>
+      <c r="I43">
+        <v>0.7398208341184599</v>
+      </c>
+      <c r="J43">
+        <v>0.7610641062452784</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44">
+        <v>0.9020979020979021</v>
+      </c>
+      <c r="H44">
+        <v>0.8807262627038374</v>
+      </c>
+      <c r="I44">
+        <v>0.8969155712898683</v>
+      </c>
+      <c r="J44">
+        <v>0.8867401758701421</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" t="s">
+        <v>292</v>
+      </c>
+      <c r="G45">
+        <v>0.8895966029723992</v>
+      </c>
+      <c r="H45">
+        <v>0.9040392012701254</v>
+      </c>
+      <c r="I45">
+        <v>0.8734945087737062</v>
+      </c>
+      <c r="J45">
+        <v>0.8853565390523759</v>
+      </c>
+      <c r="K45" t="s">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46">
+        <v>0.9077090119435396</v>
+      </c>
+      <c r="H46">
+        <v>0.8449077589608427</v>
+      </c>
+      <c r="I46">
+        <v>0.9234890448806068</v>
+      </c>
+      <c r="J46">
+        <v>0.8770019839964788</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" t="s">
+        <v>294</v>
+      </c>
+      <c r="G47">
+        <v>0.8439821693907875</v>
+      </c>
+      <c r="H47">
+        <v>0.8363717955823219</v>
+      </c>
+      <c r="I47">
+        <v>0.8853146144527813</v>
+      </c>
+      <c r="J47">
+        <v>0.8487307386430848</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48">
+        <v>0.896</v>
+      </c>
+      <c r="H48">
+        <v>0.8504475163859945</v>
+      </c>
+      <c r="I48">
+        <v>0.868902118616606</v>
+      </c>
+      <c r="J48">
+        <v>0.8582200824583571</v>
+      </c>
+      <c r="K48" t="s">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49">
+        <v>0.907202216066482</v>
+      </c>
+      <c r="H49">
+        <v>0.8332660811240983</v>
+      </c>
+      <c r="I49">
+        <v>0.8367434030224729</v>
+      </c>
+      <c r="J49">
+        <v>0.8349858959060171</v>
+      </c>
+      <c r="K49" t="s">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50">
+        <v>0.9104</v>
+      </c>
+      <c r="H50">
+        <v>0.890430081229626</v>
+      </c>
+      <c r="I50">
+        <v>0.9070441059448777</v>
+      </c>
+      <c r="J50">
+        <v>0.896858397259479</v>
+      </c>
+      <c r="K50" t="s">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" t="s">
+        <v>298</v>
+      </c>
+      <c r="G51">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="H51">
+        <v>0.8313251739600118</v>
+      </c>
+      <c r="I51">
+        <v>0.8622832043017805</v>
+      </c>
+      <c r="J51">
+        <v>0.8450494482246776</v>
+      </c>
+      <c r="K51" t="s">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52">
+        <v>0.896976483762598</v>
+      </c>
+      <c r="H52">
+        <v>0.8604548365781598</v>
+      </c>
+      <c r="I52">
+        <v>0.8871973400955784</v>
+      </c>
+      <c r="J52">
+        <v>0.8689645891596175</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" t="s">
+        <v>300</v>
+      </c>
+      <c r="G53">
+        <v>0.9470404984423676</v>
+      </c>
+      <c r="H53">
+        <v>0.9360138060992295</v>
+      </c>
+      <c r="I53">
+        <v>0.9470202951851702</v>
+      </c>
+      <c r="J53">
+        <v>0.9411737469614539</v>
+      </c>
+      <c r="K53" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54">
+        <v>0.9318181818181818</v>
+      </c>
+      <c r="H54">
+        <v>0.8790026740846413</v>
+      </c>
+      <c r="I54">
+        <v>0.9084291797634328</v>
+      </c>
+      <c r="J54">
+        <v>0.8930169338359134</v>
+      </c>
+      <c r="K54" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>242</v>
+      </c>
+      <c r="F55" t="s">
+        <v>302</v>
+      </c>
+      <c r="G55">
+        <v>0.8633754305396096</v>
+      </c>
+      <c r="H55">
+        <v>0.816086358207405</v>
+      </c>
+      <c r="I55">
+        <v>0.7490982510679065</v>
+      </c>
+      <c r="J55">
+        <v>0.7663124754673715</v>
+      </c>
+      <c r="K55" t="s">
+        <v>362</v>
+      </c>
+      <c r="L55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>243</v>
+      </c>
+      <c r="F56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56">
+        <v>0.9375</v>
+      </c>
+      <c r="H56">
+        <v>0.9009917422182946</v>
+      </c>
+      <c r="I56">
+        <v>0.9262349273512315</v>
+      </c>
+      <c r="J56">
+        <v>0.9130863505998255</v>
+      </c>
+      <c r="K56" t="s">
+        <v>363</v>
+      </c>
+      <c r="L56" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F57" t="s">
+        <v>304</v>
+      </c>
+      <c r="G57">
+        <v>0.8956639566395664</v>
+      </c>
+      <c r="H57">
+        <v>0.8684157092554039</v>
+      </c>
+      <c r="I57">
+        <v>0.9089932038389126</v>
+      </c>
+      <c r="J57">
+        <v>0.8853195938725564</v>
+      </c>
+      <c r="K57" t="s">
+        <v>364</v>
+      </c>
+      <c r="L57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>245</v>
+      </c>
+      <c r="F58" t="s">
+        <v>305</v>
+      </c>
+      <c r="G58">
+        <v>0.9077090119435396</v>
+      </c>
+      <c r="H58">
+        <v>0.8573346193905985</v>
+      </c>
+      <c r="I58">
+        <v>0.9207477730642823</v>
+      </c>
+      <c r="J58">
+        <v>0.8854521500943063</v>
+      </c>
+      <c r="K58" t="s">
+        <v>365</v>
+      </c>
+      <c r="L58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" t="s">
+        <v>306</v>
+      </c>
+      <c r="G59">
+        <v>0.9291217257318952</v>
+      </c>
+      <c r="H59">
+        <v>0.9035607568945263</v>
+      </c>
+      <c r="I59">
+        <v>0.9241053647000249</v>
+      </c>
+      <c r="J59">
+        <v>0.910664620603382</v>
+      </c>
+      <c r="K59" t="s">
+        <v>366</v>
+      </c>
+      <c r="L59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" t="s">
+        <v>307</v>
+      </c>
+      <c r="G60">
+        <v>0.910873440285205</v>
+      </c>
+      <c r="H60">
+        <v>0.871163708086785</v>
+      </c>
+      <c r="I60">
+        <v>0.8895795701593517</v>
+      </c>
+      <c r="J60">
+        <v>0.8795564496565681</v>
+      </c>
+      <c r="K60" t="s">
+        <v>367</v>
+      </c>
+      <c r="L60" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61">
+        <v>0.8330733229329174</v>
+      </c>
+      <c r="H61">
+        <v>0.8642867523505471</v>
+      </c>
+      <c r="I61">
+        <v>0.7042679549772927</v>
+      </c>
+      <c r="J61">
+        <v>0.7345096341671842</v>
+      </c>
+      <c r="K61" t="s">
+        <v>368</v>
+      </c>
+      <c r="L61" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
